--- a/InputData/indst/BIFUbC/BAU Industrial Fuel Use before CCS.xlsx
+++ b/InputData/indst/BIFUbC/BAU Industrial Fuel Use before CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\indst\BIFUbC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\indst\BIFUbC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472FC8A-DBFC-4347-86A5-D7323FAAB672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC17982-7684-41CA-9233-734A88D67CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="428" windowWidth="16620" windowHeight="9412" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15390" yWindow="1425" windowWidth="12285" windowHeight="15285" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2098,7 +2098,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2300,6 +2300,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2633,7 +2639,7 @@
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2925,6 +2931,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="25">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% - Accent1" xfId="43" builtinId="30" customBuiltin="1"/>
@@ -4140,20 +4150,20 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.73046875" customWidth="1"/>
-    <col min="3" max="3" width="42.3984375" customWidth="1"/>
-    <col min="4" max="4" width="57.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.3984375" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -4161,28 +4171,28 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="104" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
@@ -4191,7 +4201,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -4200,7 +4210,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2012</v>
       </c>
@@ -4209,7 +4219,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
@@ -4218,7 +4228,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="104" t="s">
         <v>60</v>
       </c>
@@ -4227,7 +4237,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
@@ -4236,11 +4246,11 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
@@ -4252,7 +4262,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -4261,7 +4271,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -4273,7 +4283,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -4285,7 +4295,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4304,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -4303,7 +4313,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -4315,7 +4325,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -4324,7 +4334,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -4336,295 +4346,295 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="104" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="104" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>128</v>
       </c>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
     </row>
-    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="69" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>327</v>
       </c>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
         <v>308</v>
       </c>
@@ -4633,7 +4643,7 @@
       </c>
       <c r="D92" s="58"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="78" t="s">
         <v>309</v>
       </c>
@@ -4642,7 +4652,7 @@
       </c>
       <c r="D93" s="58"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="78" t="s">
         <v>310</v>
       </c>
@@ -4651,7 +4661,7 @@
       </c>
       <c r="D94" s="58"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="78" t="s">
         <v>311</v>
       </c>
@@ -4660,7 +4670,7 @@
       </c>
       <c r="D95" s="58"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="78" t="s">
         <v>51</v>
       </c>
@@ -4669,7 +4679,7 @@
       </c>
       <c r="D96" s="58"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="78" t="s">
         <v>52</v>
       </c>
@@ -4678,7 +4688,7 @@
       </c>
       <c r="D97" s="58"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="78" t="s">
         <v>53</v>
       </c>
@@ -4687,7 +4697,7 @@
       </c>
       <c r="D98" s="58"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="78" t="s">
         <v>312</v>
       </c>
@@ -4696,7 +4706,7 @@
       </c>
       <c r="D99" s="58"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="78" t="s">
         <v>313</v>
       </c>
@@ -4705,7 +4715,7 @@
       </c>
       <c r="D100" s="58"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="78" t="s">
         <v>314</v>
       </c>
@@ -4714,40 +4724,40 @@
       </c>
       <c r="D101" s="58"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D102" s="58"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D103" s="58"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D104" s="58"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D105" s="58"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D106" s="58"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D107" s="58"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D108" s="58"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D109" s="58"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D110" s="58"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D111" s="57"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D112" s="58"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="57"/>
     </row>
   </sheetData>
@@ -4775,17 +4785,17 @@
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -4888,11 +4898,11 @@
       <c r="AH1" s="24"/>
       <c r="AI1" s="24"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="143">
         <v>0</v>
       </c>
       <c r="C2" s="23">
@@ -4991,13 +5001,12 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="23">
-        <f>Refineries!C109</f>
-        <v>902400000000000</v>
+      <c r="B3" s="143">
+        <v>783995972000000</v>
       </c>
       <c r="C3" s="23">
         <f>Refineries!D109</f>
@@ -5126,11 +5135,11 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="143">
         <v>0</v>
       </c>
       <c r="C4" s="23">
@@ -5229,11 +5238,11 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="143">
         <v>0</v>
       </c>
       <c r="C5" s="23">
@@ -5332,11 +5341,11 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="143">
         <v>0</v>
       </c>
       <c r="C6" s="23">
@@ -5435,11 +5444,11 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="143">
         <v>0</v>
       </c>
       <c r="C7" s="23">
@@ -5538,11 +5547,11 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="143">
         <v>0</v>
       </c>
       <c r="C8" s="23">
@@ -5641,12 +5650,11 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="30">
-        <f>MAX(0,INDEX(Data!$C$141:$AJ$141,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-SUM(B2:B8))</f>
+      <c r="B9" s="144">
         <v>0</v>
       </c>
       <c r="C9" s="30">
@@ -5789,18 +5797,18 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -5903,13 +5911,12 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="23">
-        <f>INDEX(Data!$C$3:$AJ$3,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$6:$AJ$6,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>58400000000000</v>
+      <c r="B2" s="143">
+        <v>45352504000000</v>
       </c>
       <c r="C2" s="23">
         <f>INDEX(Data!$C$3:$AJ$3,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$6:$AJ$6,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -6038,12 +6045,11 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="23">
-        <f>SUM('Mining Breakdown'!B172:B173)*10^12</f>
+      <c r="B3" s="143">
         <v>0</v>
       </c>
       <c r="C3" s="23">
@@ -6173,13 +6179,12 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="23">
-        <f>INDEX(Data!$C$33:$AJ$33,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>2700000000000</v>
+      <c r="B4" s="143">
+        <v>2653385000000</v>
       </c>
       <c r="C4" s="23">
         <f>INDEX(Data!$C$33:$AJ$33,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -6308,13 +6313,12 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="23">
-        <f>SUM(INDEX(Data!$C$49:$AJ$49,MATCH(B$1,Data!$C$1:$AJ$1,0)),INDEX(Data!$C$51:$AK$51,1,MATCH(B$1,Data!$C$1:$AJ$1,0)))*10^12</f>
-        <v>85500000000000</v>
+      <c r="B5" s="143">
+        <v>68659549999999.992</v>
       </c>
       <c r="C5" s="23">
         <f>SUM(INDEX(Data!$C$49:$AJ$49,MATCH(C$1,Data!$C$1:$AJ$1,0)),INDEX(Data!$C$51:$AK$51,1,MATCH(C$1,Data!$C$1:$AJ$1,0)))*10^12</f>
@@ -6443,12 +6447,11 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="23">
-        <f>SUM('Mining Breakdown'!B184:B185)*10^12</f>
+      <c r="B6" s="143">
         <v>48692737404260.047</v>
       </c>
       <c r="C6" s="23">
@@ -6578,11 +6581,11 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="143">
         <v>0</v>
       </c>
       <c r="C7" s="23">
@@ -6681,13 +6684,12 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="23">
-        <f>INDEX(Data!$C$85:$AJ$85,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$87:$AJ$87,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>522900000000000</v>
+      <c r="B8" s="143">
+        <v>568286225000000</v>
       </c>
       <c r="C8" s="23">
         <f>INDEX(Data!$C$85:$AJ$85,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$87:$AJ$87,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -6816,13 +6818,12 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="23">
-        <f>INDEX(Data!$C$125:$AJ$125,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$126:$AJ$126,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$129:$AJ$129,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$130:$AJ$130,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-SUM(B2:B8)</f>
-        <v>2264857341595740</v>
+      <c r="B9" s="143">
+        <v>2142954136595739.5</v>
       </c>
       <c r="C9" s="23">
         <f>INDEX(Data!$C$125:$AJ$125,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$126:$AJ$126,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$129:$AJ$129,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$130:$AJ$130,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15-SUM(C2:C8)</f>
@@ -6951,7 +6952,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
     </row>
   </sheetData>
@@ -6970,13 +6971,13 @@
       <selection activeCell="AH1" sqref="AH1:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -7079,7 +7080,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
@@ -7382,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
@@ -7900,17 +7901,17 @@
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="6"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -8013,11 +8014,11 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="145">
         <v>0</v>
       </c>
       <c r="C2" s="6">
@@ -8114,13 +8115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="6">
-        <f>Refineries!C105</f>
-        <v>3.7344845963055048E+16</v>
+      <c r="B3" s="145">
+        <v>3.714897138238064E+16</v>
       </c>
       <c r="C3" s="6">
         <f>Refineries!D105</f>
@@ -8247,11 +8247,11 @@
         <v>3.9465352294727136E+16</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="145">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -8348,11 +8348,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="145">
         <v>0</v>
       </c>
       <c r="C5" s="6">
@@ -8449,11 +8449,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="145">
         <v>0</v>
       </c>
       <c r="C6" s="6">
@@ -8550,11 +8550,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="145">
         <v>0</v>
       </c>
       <c r="C7" s="6">
@@ -8651,11 +8651,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="145">
         <v>0</v>
       </c>
       <c r="C8" s="6">
@@ -8752,11 +8752,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="145">
         <v>0</v>
       </c>
       <c r="C9" s="6">
@@ -8865,18 +8865,18 @@
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="6"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -8979,13 +8979,12 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="6">
-        <f>INDEX(Data!$C$4:$AJ$4,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$7:$AJ$7,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>5700000000000</v>
+      <c r="B2" s="145">
+        <v>6982996000000</v>
       </c>
       <c r="C2" s="6">
         <f>INDEX(Data!$C$4:$AJ$4,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$7:$AJ$7,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -9112,12 +9111,11 @@
         <v>14500000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="6">
-        <f>SUM('Mining Breakdown'!B171,'Mining Breakdown'!B174)*10^12</f>
+      <c r="B3" s="145">
         <v>0</v>
       </c>
       <c r="C3" s="6">
@@ -9245,13 +9243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="6">
-        <f>INDEX(Data!$C$34:$AJ$34,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$36:$AJ$36,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>21600000000000</v>
+      <c r="B4" s="145">
+        <v>24411713000000.004</v>
       </c>
       <c r="C4" s="6">
         <f>INDEX(Data!$C$34:$AJ$34,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$36:$AJ$36,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -9378,13 +9375,12 @@
         <v>23500000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="6">
-        <f>INDEX(Data!$C$48:$AJ$48,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$52:$AJ$52,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>161400000000000</v>
+      <c r="B5" s="145">
+        <v>187732849000000.03</v>
       </c>
       <c r="C5" s="6">
         <f>INDEX(Data!$C$48:$AJ$48,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$52:$AJ$52,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -9511,12 +9507,11 @@
         <v>156300000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="6">
-        <f>SUM('Mining Breakdown'!B183,'Mining Breakdown'!B186)*10^12</f>
+      <c r="B6" s="145">
         <v>11633486522692.672</v>
       </c>
       <c r="C6" s="6">
@@ -9644,11 +9639,11 @@
         <v>15807149728772.104</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="145">
         <v>0</v>
       </c>
       <c r="C7" s="6">
@@ -9745,13 +9740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="30">
-        <f>INDEX(Data!$C$84:$AJ$84,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$88:$AJ$88,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>51500000000000</v>
+      <c r="B8" s="144">
+        <v>60290727000000.008</v>
       </c>
       <c r="C8" s="30">
         <f>INDEX(Data!$C$84:$AJ$84,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$88:$AJ$88,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -9880,13 +9874,12 @@
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="6">
-        <f>INDEX(Data!$C$127:$AJ$127,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$131:$AJ$131,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-SUM(B2:B8)</f>
-        <v>197617378477307.31</v>
+      <c r="B9" s="145">
+        <v>229886603477307.25</v>
       </c>
       <c r="C9" s="6">
         <f>INDEX(Data!$C$127:$AJ$127,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$131:$AJ$131,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15-SUM(C2:C8)</f>
@@ -10025,18 +10018,18 @@
   </sheetPr>
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -10139,13 +10132,12 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="6">
-        <f>INDEX(Data!$C$5:$AJ$5,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>400000000000</v>
+      <c r="B2" s="145">
+        <v>669813000000</v>
       </c>
       <c r="C2" s="6">
         <f>INDEX(Data!$C$5:$AJ$5,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -10272,11 +10264,11 @@
         <v>200000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="145">
         <v>0</v>
       </c>
       <c r="C3" s="6">
@@ -10373,13 +10365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="6">
-        <f>INDEX(Data!$C$35:$AJ$35,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>200000000000</v>
+      <c r="B4" s="145">
+        <v>332549000000</v>
       </c>
       <c r="C4" s="6">
         <f>INDEX(Data!$C$35:$AJ$35,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -10506,13 +10497,12 @@
         <v>100000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="6">
-        <f>INDEX(Data!$C$50:$AJ$50,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$60:$AJ$60,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12++INDEX(Data!$C$62:$AJ$62,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>3582300000000000</v>
+      <c r="B5" s="145">
+        <v>3068815724000000</v>
       </c>
       <c r="C5" s="6">
         <f>INDEX(Data!$C$50:$AJ$50,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12+INDEX(Data!$C$60:$AJ$60,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12++INDEX(Data!$C$62:$AJ$62,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -10639,11 +10629,11 @@
         <v>6015600000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="145">
         <v>0</v>
       </c>
       <c r="C6" s="6">
@@ -10740,11 +10730,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="145">
         <v>0</v>
       </c>
       <c r="C7" s="6">
@@ -10841,13 +10831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="32">
-        <f>INDEX(Data!$C$86:$AJ$86,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>85500000000000</v>
+      <c r="B8" s="146">
+        <v>176057953000000</v>
       </c>
       <c r="C8" s="32">
         <f>INDEX(Data!$C$86:$AJ$86,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -10976,13 +10965,12 @@
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="6">
-        <f>INDEX(Data!$C$96:$AJ$96,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$97:$AJ$97,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$102:$AJ$102,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-SUM(B2:B8)</f>
-        <v>91600000000000</v>
+      <c r="B9" s="145">
+        <v>243595961000000</v>
       </c>
       <c r="C9" s="6">
         <f>INDEX(Data!$C$96:$AJ$96,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$97:$AJ$97,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15+INDEX(Data!$C$102:$AJ$102,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15-SUM(C2:C8)</f>
@@ -11125,13 +11113,13 @@
       <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -11234,7 +11222,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
@@ -11335,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
@@ -11436,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
@@ -11537,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
@@ -11638,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
@@ -11739,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
@@ -11840,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
@@ -11941,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
@@ -12055,23 +12043,23 @@
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="56" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="54"/>
     </row>
-    <row r="3" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="54"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -12111,7 +12099,7 @@
       <c r="AJ3" s="52"/>
       <c r="AK3" s="52"/>
     </row>
-    <row r="4" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
         <v>275</v>
       </c>
@@ -12217,8 +12205,8 @@
       <c r="AJ4" s="55"/>
       <c r="AK4" s="55"/>
     </row>
-    <row r="5" spans="2:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57" t="s">
         <v>573</v>
       </c>
@@ -12324,12 +12312,12 @@
       <c r="AJ6" s="61"/>
       <c r="AK6" s="62"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>277</v>
       </c>
@@ -12435,12 +12423,12 @@
       <c r="AJ8" s="64"/>
       <c r="AK8" s="62"/>
     </row>
-    <row r="10" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
         <v>13</v>
       </c>
@@ -12546,7 +12534,7 @@
       <c r="AJ11" s="65"/>
       <c r="AK11" s="59"/>
     </row>
-    <row r="12" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
         <v>12</v>
       </c>
@@ -12652,7 +12640,7 @@
       <c r="AJ12" s="65"/>
       <c r="AK12" s="59"/>
     </row>
-    <row r="13" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
         <v>14</v>
       </c>
@@ -12758,7 +12746,7 @@
       <c r="AJ13" s="65"/>
       <c r="AK13" s="59"/>
     </row>
-    <row r="14" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="67" t="s">
         <v>15</v>
       </c>
@@ -12864,7 +12852,7 @@
       <c r="AJ14" s="65"/>
       <c r="AK14" s="59"/>
     </row>
-    <row r="15" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="67" t="s">
         <v>23</v>
       </c>
@@ -12970,7 +12958,7 @@
       <c r="AJ15" s="65"/>
       <c r="AK15" s="59"/>
     </row>
-    <row r="16" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>16</v>
       </c>
@@ -13076,7 +13064,7 @@
       <c r="AJ16" s="65"/>
       <c r="AK16" s="59"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
         <v>81</v>
       </c>
@@ -13182,7 +13170,7 @@
       <c r="AJ17" s="65"/>
       <c r="AK17" s="59"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="58" t="s">
         <v>17</v>
       </c>
@@ -13288,7 +13276,7 @@
       <c r="AJ18" s="65"/>
       <c r="AK18" s="59"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
         <v>24</v>
       </c>
@@ -13394,7 +13382,7 @@
       <c r="AJ19" s="65"/>
       <c r="AK19" s="59"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="58" t="s">
         <v>25</v>
       </c>
@@ -13500,7 +13488,7 @@
       <c r="AJ20" s="65"/>
       <c r="AK20" s="59"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
         <v>26</v>
       </c>
@@ -13606,7 +13594,7 @@
       <c r="AJ21" s="65"/>
       <c r="AK21" s="59"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="58" t="s">
         <v>27</v>
       </c>
@@ -13712,7 +13700,7 @@
       <c r="AJ22" s="65"/>
       <c r="AK22" s="59"/>
     </row>
-    <row r="23" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="58" t="s">
         <v>115</v>
       </c>
@@ -13818,7 +13806,7 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="59"/>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
         <v>22</v>
       </c>
@@ -13924,7 +13912,7 @@
       <c r="AJ24" s="65"/>
       <c r="AK24" s="59"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>1</v>
       </c>
@@ -14030,13 +14018,13 @@
       <c r="AJ25" s="64"/>
       <c r="AK25" s="62"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>280</v>
       </c>
@@ -14142,18 +14130,18 @@
       <c r="AJ28" s="61"/>
       <c r="AK28" s="62"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="58" t="s">
         <v>30</v>
       </c>
@@ -14259,7 +14247,7 @@
       <c r="AJ32" s="65"/>
       <c r="AK32" s="59"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="58" t="s">
         <v>31</v>
       </c>
@@ -14365,7 +14353,7 @@
       <c r="AJ33" s="65"/>
       <c r="AK33" s="59"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="58" t="s">
         <v>283</v>
       </c>
@@ -14471,7 +14459,7 @@
       <c r="AJ34" s="65"/>
       <c r="AK34" s="59"/>
     </row>
-    <row r="35" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="58" t="s">
         <v>32</v>
       </c>
@@ -14577,7 +14565,7 @@
       <c r="AJ35" s="65"/>
       <c r="AK35" s="59"/>
     </row>
-    <row r="36" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="58" t="s">
         <v>284</v>
       </c>
@@ -14683,7 +14671,7 @@
       <c r="AJ36" s="65"/>
       <c r="AK36" s="59"/>
     </row>
-    <row r="37" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="58" t="s">
         <v>33</v>
       </c>
@@ -14789,7 +14777,7 @@
       <c r="AJ37" s="65"/>
       <c r="AK37" s="59"/>
     </row>
-    <row r="38" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="58" t="s">
         <v>83</v>
       </c>
@@ -14895,7 +14883,7 @@
       <c r="AJ38" s="65"/>
       <c r="AK38" s="59"/>
     </row>
-    <row r="39" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="58" t="s">
         <v>34</v>
       </c>
@@ -15001,7 +14989,7 @@
       <c r="AJ39" s="65"/>
       <c r="AK39" s="59"/>
     </row>
-    <row r="40" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="58" t="s">
         <v>35</v>
       </c>
@@ -15107,7 +15095,7 @@
       <c r="AJ40" s="65"/>
       <c r="AK40" s="59"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="58" t="s">
         <v>37</v>
       </c>
@@ -15213,7 +15201,7 @@
       <c r="AJ41" s="65"/>
       <c r="AK41" s="59"/>
     </row>
-    <row r="42" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>285</v>
       </c>
@@ -15319,13 +15307,13 @@
       <c r="AJ42" s="64"/>
       <c r="AK42" s="62"/>
     </row>
-    <row r="43" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>287</v>
       </c>
@@ -15431,19 +15419,19 @@
       <c r="AJ45" s="61"/>
       <c r="AK45" s="62"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="58" t="s">
         <v>30</v>
       </c>
@@ -15549,7 +15537,7 @@
       <c r="AJ50" s="65"/>
       <c r="AK50" s="59"/>
     </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B51" s="58" t="s">
         <v>31</v>
       </c>
@@ -15655,7 +15643,7 @@
       <c r="AJ51" s="65"/>
       <c r="AK51" s="59"/>
     </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B52" s="58" t="s">
         <v>283</v>
       </c>
@@ -15761,7 +15749,7 @@
       <c r="AJ52" s="65"/>
       <c r="AK52" s="59"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="58" t="s">
         <v>32</v>
       </c>
@@ -15867,7 +15855,7 @@
       <c r="AJ53" s="65"/>
       <c r="AK53" s="59"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="58" t="s">
         <v>284</v>
       </c>
@@ -15973,7 +15961,7 @@
       <c r="AJ54" s="65"/>
       <c r="AK54" s="59"/>
     </row>
-    <row r="55" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="58" t="s">
         <v>33</v>
       </c>
@@ -16079,7 +16067,7 @@
       <c r="AJ55" s="65"/>
       <c r="AK55" s="59"/>
     </row>
-    <row r="56" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="58" t="s">
         <v>83</v>
       </c>
@@ -16185,7 +16173,7 @@
       <c r="AJ56" s="65"/>
       <c r="AK56" s="59"/>
     </row>
-    <row r="57" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="58" t="s">
         <v>34</v>
       </c>
@@ -16291,7 +16279,7 @@
       <c r="AJ57" s="65"/>
       <c r="AK57" s="59"/>
     </row>
-    <row r="58" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="58" t="s">
         <v>290</v>
       </c>
@@ -16397,7 +16385,7 @@
       <c r="AJ58" s="65"/>
       <c r="AK58" s="59"/>
     </row>
-    <row r="59" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="58" t="s">
         <v>37</v>
       </c>
@@ -16503,7 +16491,7 @@
       <c r="AJ59" s="65"/>
       <c r="AK59" s="59"/>
     </row>
-    <row r="60" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="57" t="s">
         <v>1</v>
       </c>
@@ -16609,18 +16597,18 @@
       <c r="AJ60" s="64"/>
       <c r="AK60" s="62"/>
     </row>
-    <row r="61" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="58" t="s">
         <v>293</v>
       </c>
@@ -16726,7 +16714,7 @@
       <c r="AJ64" s="60"/>
       <c r="AK64" s="59"/>
     </row>
-    <row r="65" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="58" t="s">
         <v>34</v>
       </c>
@@ -16832,7 +16820,7 @@
       <c r="AJ65" s="60"/>
       <c r="AK65" s="59"/>
     </row>
-    <row r="66" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="58" t="s">
         <v>294</v>
       </c>
@@ -16938,7 +16926,7 @@
       <c r="AJ66" s="60"/>
       <c r="AK66" s="59"/>
     </row>
-    <row r="67" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="58" t="s">
         <v>295</v>
       </c>
@@ -17044,7 +17032,7 @@
       <c r="AJ67" s="60"/>
       <c r="AK67" s="59"/>
     </row>
-    <row r="68" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="57" t="s">
         <v>285</v>
       </c>
@@ -17150,12 +17138,12 @@
       <c r="AJ68" s="66"/>
       <c r="AK68" s="62"/>
     </row>
-    <row r="69" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="57" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B70" s="58" t="s">
         <v>293</v>
       </c>
@@ -17261,7 +17249,7 @@
       <c r="AJ70" s="60"/>
       <c r="AK70" s="59"/>
     </row>
-    <row r="71" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="58" t="s">
         <v>34</v>
       </c>
@@ -17367,7 +17355,7 @@
       <c r="AJ71" s="60"/>
       <c r="AK71" s="59"/>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B72" s="58" t="s">
         <v>294</v>
       </c>
@@ -17473,7 +17461,7 @@
       <c r="AJ72" s="60"/>
       <c r="AK72" s="59"/>
     </row>
-    <row r="73" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="58" t="s">
         <v>295</v>
       </c>
@@ -17579,7 +17567,7 @@
       <c r="AJ73" s="60"/>
       <c r="AK73" s="59"/>
     </row>
-    <row r="74" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
         <v>285</v>
       </c>
@@ -17685,12 +17673,12 @@
       <c r="AJ74" s="66"/>
       <c r="AK74" s="62"/>
     </row>
-    <row r="75" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="57" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="58" t="s">
         <v>298</v>
       </c>
@@ -17796,7 +17784,7 @@
       <c r="AJ76" s="60"/>
       <c r="AK76" s="59"/>
     </row>
-    <row r="77" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
         <v>299</v>
       </c>
@@ -17902,18 +17890,18 @@
       <c r="AJ77" s="60"/>
       <c r="AK77" s="59"/>
     </row>
-    <row r="78" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B81" s="58" t="s">
         <v>302</v>
       </c>
@@ -18019,7 +18007,7 @@
       <c r="AJ81" s="65"/>
       <c r="AK81" s="59"/>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="58" t="s">
         <v>303</v>
       </c>
@@ -18125,7 +18113,7 @@
       <c r="AJ82" s="65"/>
       <c r="AK82" s="59"/>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="58" t="s">
         <v>304</v>
       </c>
@@ -18231,7 +18219,7 @@
       <c r="AJ83" s="65"/>
       <c r="AK83" s="59"/>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="57" t="s">
         <v>305</v>
       </c>
@@ -18337,8 +18325,8 @@
       <c r="AJ84" s="64"/>
       <c r="AK84" s="62"/>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" spans="1:37" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="117" t="s">
         <v>574</v>
       </c>
@@ -18379,7 +18367,7 @@
       <c r="AH87" s="114"/>
       <c r="AI87" s="114"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="114"/>
       <c r="B88" s="115" t="s">
         <v>145</v>
@@ -18418,7 +18406,7 @@
       <c r="AH88" s="114"/>
       <c r="AI88" s="114"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="114"/>
       <c r="B89" s="115" t="s">
         <v>146</v>
@@ -18525,7 +18513,7 @@
       <c r="AJ89" s="52"/>
       <c r="AK89" s="52"/>
     </row>
-    <row r="90" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="114"/>
       <c r="B90" s="116" t="s">
         <v>147</v>
@@ -18632,7 +18620,7 @@
       <c r="AJ90" s="55"/>
       <c r="AK90" s="55"/>
     </row>
-    <row r="91" spans="1:37" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="114"/>
       <c r="B91" s="114"/>
       <c r="C91" s="114"/>
@@ -18669,7 +18657,7 @@
       <c r="AH91" s="114"/>
       <c r="AI91" s="114"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="114"/>
       <c r="B92" s="120" t="s">
         <v>148</v>
@@ -18708,7 +18696,7 @@
       <c r="AH92" s="114"/>
       <c r="AI92" s="114"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="117" t="s">
         <v>575</v>
       </c>
@@ -18817,7 +18805,7 @@
       <c r="AJ93" s="60"/>
       <c r="AK93" s="59"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="117" t="s">
         <v>576</v>
       </c>
@@ -18926,7 +18914,7 @@
       <c r="AJ94" s="60"/>
       <c r="AK94" s="59"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="117" t="s">
         <v>577</v>
       </c>
@@ -19035,7 +19023,7 @@
       <c r="AJ95" s="60"/>
       <c r="AK95" s="59"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="117" t="s">
         <v>578</v>
       </c>
@@ -19144,7 +19132,7 @@
       <c r="AJ96" s="60"/>
       <c r="AK96" s="59"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="117" t="s">
         <v>579</v>
       </c>
@@ -19253,7 +19241,7 @@
       <c r="AJ97" s="60"/>
       <c r="AK97" s="59"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="117" t="s">
         <v>580</v>
       </c>
@@ -19362,7 +19350,7 @@
       <c r="AJ98" s="60"/>
       <c r="AK98" s="59"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="117" t="s">
         <v>581</v>
       </c>
@@ -19471,7 +19459,7 @@
       <c r="AJ99" s="60"/>
       <c r="AK99" s="59"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="117" t="s">
         <v>582</v>
       </c>
@@ -19580,12 +19568,12 @@
       <c r="AJ100" s="66"/>
       <c r="AK100" s="62"/>
     </row>
-    <row r="103" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="53" t="s">
         <v>159</v>
       </c>
@@ -19689,7 +19677,7 @@
       <c r="AJ104" s="55"/>
       <c r="AK104" s="55"/>
     </row>
-    <row r="105" spans="1:37" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>307</v>
       </c>
@@ -19822,7 +19810,7 @@
         <v>3.9465352294727136E+16</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>132</v>
       </c>
@@ -19955,7 +19943,7 @@
         <v>1769500000000000</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B107" s="63" t="s">
         <v>131</v>
       </c>
@@ -20088,7 +20076,7 @@
         <v>32600000000000</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>130</v>
       </c>
@@ -20221,7 +20209,7 @@
         <v>227800000000000</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>323</v>
       </c>
@@ -20368,14 +20356,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="16.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127"/>
       <c r="B1" s="128" t="s">
         <v>559</v>
@@ -20479,7 +20467,7 @@
       <c r="AI1" s="127"/>
       <c r="AJ1" s="116"/>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127"/>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -20516,7 +20504,7 @@
       <c r="AH2" s="127"/>
       <c r="AI2" s="127"/>
     </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="127"/>
       <c r="B3" s="127"/>
       <c r="C3" s="140" t="s">
@@ -20557,7 +20545,7 @@
       <c r="AH3" s="127"/>
       <c r="AI3" s="127"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="127"/>
       <c r="B4" s="127"/>
       <c r="C4" s="140" t="s">
@@ -20600,7 +20588,7 @@
       <c r="AH4" s="127"/>
       <c r="AI4" s="127"/>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="127"/>
       <c r="B5" s="127"/>
       <c r="C5" s="140" t="s">
@@ -20641,7 +20629,7 @@
       <c r="AH5" s="127"/>
       <c r="AI5" s="127"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="127"/>
       <c r="B6" s="127"/>
       <c r="C6" s="140" t="s">
@@ -20682,7 +20670,7 @@
       <c r="AH6" s="127"/>
       <c r="AI6" s="127"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="130" t="s">
         <v>329</v>
       </c>
@@ -20723,7 +20711,7 @@
       <c r="AH10" s="127"/>
       <c r="AI10" s="127"/>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
       <c r="B11" s="128" t="s">
         <v>301</v>
@@ -20762,7 +20750,7 @@
       <c r="AH11" s="127"/>
       <c r="AI11" s="127"/>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="127"/>
       <c r="B12" s="128" t="s">
         <v>146</v>
@@ -20869,7 +20857,7 @@
       <c r="AJ12" s="52"/>
       <c r="AK12" s="52"/>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="127"/>
       <c r="B13" s="129" t="s">
         <v>330</v>
@@ -20976,7 +20964,7 @@
       <c r="AJ13" s="116"/>
       <c r="AK13" s="116"/>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="127"/>
       <c r="B14" s="127"/>
       <c r="C14" s="127"/>
@@ -21013,7 +21001,7 @@
       <c r="AH14" s="127"/>
       <c r="AI14" s="127"/>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="130" t="s">
         <v>331</v>
       </c>
@@ -21122,7 +21110,7 @@
       <c r="AJ15" s="61"/>
       <c r="AK15" s="125"/>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="130" t="s">
         <v>333</v>
       </c>
@@ -21231,7 +21219,7 @@
       <c r="AJ16" s="85"/>
       <c r="AK16" s="59"/>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="130" t="s">
         <v>335</v>
       </c>
@@ -21340,7 +21328,7 @@
       <c r="AJ17" s="85"/>
       <c r="AK17" s="59"/>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="130" t="s">
         <v>337</v>
       </c>
@@ -21449,7 +21437,7 @@
       <c r="AJ18" s="85"/>
       <c r="AK18" s="59"/>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="130" t="s">
         <v>339</v>
       </c>
@@ -21558,7 +21546,7 @@
       <c r="AJ19" s="85"/>
       <c r="AK19" s="59"/>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="130" t="s">
         <v>340</v>
       </c>
@@ -21667,7 +21655,7 @@
       <c r="AJ20" s="85"/>
       <c r="AK20" s="59"/>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="130" t="s">
         <v>342</v>
       </c>
@@ -21776,7 +21764,7 @@
       <c r="AJ21" s="85"/>
       <c r="AK21" s="59"/>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="130" t="s">
         <v>343</v>
       </c>
@@ -21885,7 +21873,7 @@
       <c r="AJ22" s="85"/>
       <c r="AK22" s="59"/>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="130" t="s">
         <v>345</v>
       </c>
@@ -21994,7 +21982,7 @@
       <c r="AJ24" s="61"/>
       <c r="AK24" s="125"/>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="130" t="s">
         <v>347</v>
       </c>
@@ -22103,7 +22091,7 @@
       <c r="AJ25" s="85"/>
       <c r="AK25" s="59"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="130" t="s">
         <v>348</v>
       </c>
@@ -22212,7 +22200,7 @@
       <c r="AJ26" s="85"/>
       <c r="AK26" s="59"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="130" t="s">
         <v>349</v>
       </c>
@@ -22321,7 +22309,7 @@
       <c r="AJ27" s="85"/>
       <c r="AK27" s="59"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="130" t="s">
         <v>350</v>
       </c>
@@ -22430,7 +22418,7 @@
       <c r="AJ28" s="85"/>
       <c r="AK28" s="59"/>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="130" t="s">
         <v>351</v>
       </c>
@@ -22539,7 +22527,7 @@
       <c r="AJ29" s="85"/>
       <c r="AK29" s="59"/>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="130" t="s">
         <v>352</v>
       </c>
@@ -22648,7 +22636,7 @@
       <c r="AJ30" s="85"/>
       <c r="AK30" s="59"/>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="130" t="s">
         <v>353</v>
       </c>
@@ -22757,7 +22745,7 @@
       <c r="AJ31" s="85"/>
       <c r="AK31" s="59"/>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="130" t="s">
         <v>354</v>
       </c>
@@ -22866,7 +22854,7 @@
       <c r="AJ33" s="61"/>
       <c r="AK33" s="125"/>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="130" t="s">
         <v>356</v>
       </c>
@@ -22975,7 +22963,7 @@
       <c r="AJ34" s="85"/>
       <c r="AK34" s="59"/>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="130" t="s">
         <v>358</v>
       </c>
@@ -23084,7 +23072,7 @@
       <c r="AJ35" s="85"/>
       <c r="AK35" s="59"/>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="130" t="s">
         <v>359</v>
       </c>
@@ -23193,7 +23181,7 @@
       <c r="AJ36" s="85"/>
       <c r="AK36" s="59"/>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="130" t="s">
         <v>360</v>
       </c>
@@ -23302,7 +23290,7 @@
       <c r="AJ37" s="85"/>
       <c r="AK37" s="59"/>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="130" t="s">
         <v>361</v>
       </c>
@@ -23411,7 +23399,7 @@
       <c r="AJ38" s="85"/>
       <c r="AK38" s="59"/>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="130" t="s">
         <v>362</v>
       </c>
@@ -23520,7 +23508,7 @@
       <c r="AJ39" s="85"/>
       <c r="AK39" s="59"/>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
         <v>363</v>
       </c>
@@ -23629,7 +23617,7 @@
       <c r="AJ40" s="85"/>
       <c r="AK40" s="59"/>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="130" t="s">
         <v>364</v>
       </c>
@@ -23738,7 +23726,7 @@
       <c r="AJ43" s="61"/>
       <c r="AK43" s="125"/>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="130" t="s">
         <v>366</v>
       </c>
@@ -23847,7 +23835,7 @@
       <c r="AJ44" s="85"/>
       <c r="AK44" s="59"/>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
         <v>367</v>
       </c>
@@ -23956,7 +23944,7 @@
       <c r="AJ45" s="85"/>
       <c r="AK45" s="59"/>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="130" t="s">
         <v>369</v>
       </c>
@@ -24065,7 +24053,7 @@
       <c r="AJ46" s="85"/>
       <c r="AK46" s="59"/>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="130" t="s">
         <v>371</v>
       </c>
@@ -24174,7 +24162,7 @@
       <c r="AJ47" s="85"/>
       <c r="AK47" s="59"/>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="130" t="s">
         <v>373</v>
       </c>
@@ -24283,7 +24271,7 @@
       <c r="AJ49" s="61"/>
       <c r="AK49" s="125"/>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="130" t="s">
         <v>375</v>
       </c>
@@ -24392,7 +24380,7 @@
       <c r="AJ50" s="85"/>
       <c r="AK50" s="59"/>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
         <v>376</v>
       </c>
@@ -24501,7 +24489,7 @@
       <c r="AJ51" s="85"/>
       <c r="AK51" s="59"/>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="130" t="s">
         <v>378</v>
       </c>
@@ -24610,7 +24598,7 @@
       <c r="AJ52" s="85"/>
       <c r="AK52" s="59"/>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="130" t="s">
         <v>379</v>
       </c>
@@ -24719,7 +24707,7 @@
       <c r="AJ53" s="85"/>
       <c r="AK53" s="59"/>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="130" t="s">
         <v>380</v>
       </c>
@@ -24828,7 +24816,7 @@
       <c r="AJ55" s="61"/>
       <c r="AK55" s="125"/>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="130" t="s">
         <v>382</v>
       </c>
@@ -24937,7 +24925,7 @@
       <c r="AJ56" s="85"/>
       <c r="AK56" s="59"/>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="130" t="s">
         <v>383</v>
       </c>
@@ -25046,7 +25034,7 @@
       <c r="AJ57" s="85"/>
       <c r="AK57" s="59"/>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="130" t="s">
         <v>384</v>
       </c>
@@ -25155,7 +25143,7 @@
       <c r="AJ58" s="85"/>
       <c r="AK58" s="59"/>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="130" t="s">
         <v>385</v>
       </c>
@@ -25264,7 +25252,7 @@
       <c r="AJ59" s="85"/>
       <c r="AK59" s="59"/>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="130" t="s">
         <v>386</v>
       </c>
@@ -25373,7 +25361,7 @@
       <c r="AJ61" s="61"/>
       <c r="AK61" s="125"/>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="130" t="s">
         <v>388</v>
       </c>
@@ -25482,7 +25470,7 @@
       <c r="AJ62" s="85"/>
       <c r="AK62" s="59"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
         <v>390</v>
       </c>
@@ -25591,7 +25579,7 @@
       <c r="AJ63" s="85"/>
       <c r="AK63" s="59"/>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="130" t="s">
         <v>391</v>
       </c>
@@ -25700,7 +25688,7 @@
       <c r="AJ65" s="61"/>
       <c r="AK65" s="125"/>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="130" t="s">
         <v>393</v>
       </c>
@@ -25809,7 +25797,7 @@
       <c r="AJ66" s="85"/>
       <c r="AK66" s="59"/>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="130" t="s">
         <v>395</v>
       </c>
@@ -25918,7 +25906,7 @@
       <c r="AJ67" s="85"/>
       <c r="AK67" s="59"/>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="130" t="s">
         <v>396</v>
       </c>
@@ -26027,7 +26015,7 @@
       <c r="AJ68" s="85"/>
       <c r="AK68" s="59"/>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="130" t="s">
         <v>398</v>
       </c>
@@ -26136,7 +26124,7 @@
       <c r="AJ70" s="61"/>
       <c r="AK70" s="125"/>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="130" t="s">
         <v>400</v>
       </c>
@@ -26245,7 +26233,7 @@
       <c r="AJ71" s="85"/>
       <c r="AK71" s="59"/>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="130" t="s">
         <v>402</v>
       </c>
@@ -26354,7 +26342,7 @@
       <c r="AJ72" s="85"/>
       <c r="AK72" s="59"/>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="130" t="s">
         <v>404</v>
       </c>
@@ -26463,7 +26451,7 @@
       <c r="AJ73" s="85"/>
       <c r="AK73" s="59"/>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="130" t="s">
         <v>406</v>
       </c>
@@ -26572,7 +26560,7 @@
       <c r="AJ74" s="85"/>
       <c r="AK74" s="59"/>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="130" t="s">
         <v>408</v>
       </c>
@@ -26681,7 +26669,7 @@
       <c r="AJ75" s="85"/>
       <c r="AK75" s="59"/>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="130" t="s">
         <v>410</v>
       </c>
@@ -26790,7 +26778,7 @@
       <c r="AJ76" s="85"/>
       <c r="AK76" s="59"/>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="130" t="s">
         <v>411</v>
       </c>
@@ -26899,7 +26887,7 @@
       <c r="AJ77" s="85"/>
       <c r="AK77" s="59"/>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="130" t="s">
         <v>413</v>
       </c>
@@ -27008,7 +26996,7 @@
       <c r="AJ78" s="85"/>
       <c r="AK78" s="59"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="130" t="s">
         <v>415</v>
       </c>
@@ -27117,7 +27105,7 @@
       <c r="AJ79" s="85"/>
       <c r="AK79" s="59"/>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="130" t="s">
         <v>417</v>
       </c>
@@ -27226,7 +27214,7 @@
       <c r="AJ80" s="85"/>
       <c r="AK80" s="59"/>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="130" t="s">
         <v>418</v>
       </c>
@@ -27335,7 +27323,7 @@
       <c r="AJ81" s="85"/>
       <c r="AK81" s="59"/>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="130" t="s">
         <v>419</v>
       </c>
@@ -27444,7 +27432,7 @@
       <c r="AJ82" s="85"/>
       <c r="AK82" s="59"/>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="130" t="s">
         <v>420</v>
       </c>
@@ -27553,7 +27541,7 @@
       <c r="AJ83" s="85"/>
       <c r="AK83" s="59"/>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="130" t="s">
         <v>421</v>
       </c>
@@ -27662,7 +27650,7 @@
       <c r="AJ84" s="85"/>
       <c r="AK84" s="59"/>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="130" t="s">
         <v>422</v>
       </c>
@@ -27771,7 +27759,7 @@
       <c r="AJ85" s="85"/>
       <c r="AK85" s="59"/>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="130" t="s">
         <v>423</v>
       </c>
@@ -27880,7 +27868,7 @@
       <c r="AJ86" s="85"/>
       <c r="AK86" s="59"/>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="130" t="s">
         <v>424</v>
       </c>
@@ -27989,7 +27977,7 @@
       <c r="AJ87" s="85"/>
       <c r="AK87" s="59"/>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="130" t="s">
         <v>426</v>
       </c>
@@ -28098,7 +28086,7 @@
       <c r="AJ88" s="85"/>
       <c r="AK88" s="59"/>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="130" t="s">
         <v>427</v>
       </c>
@@ -28207,7 +28195,7 @@
       <c r="AJ89" s="85"/>
       <c r="AK89" s="59"/>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="130" t="s">
         <v>428</v>
       </c>
@@ -28316,7 +28304,7 @@
       <c r="AJ90" s="85"/>
       <c r="AK90" s="59"/>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="130" t="s">
         <v>429</v>
       </c>
@@ -28425,7 +28413,7 @@
       <c r="AJ91" s="85"/>
       <c r="AK91" s="59"/>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="130" t="s">
         <v>430</v>
       </c>
@@ -28534,7 +28522,7 @@
       <c r="AJ92" s="85"/>
       <c r="AK92" s="59"/>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="130" t="s">
         <v>431</v>
       </c>
@@ -28643,7 +28631,7 @@
       <c r="AJ93" s="85"/>
       <c r="AK93" s="59"/>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="130" t="s">
         <v>432</v>
       </c>
@@ -28752,7 +28740,7 @@
       <c r="AJ94" s="85"/>
       <c r="AK94" s="59"/>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="130" t="s">
         <v>433</v>
       </c>
@@ -28861,7 +28849,7 @@
       <c r="AJ95" s="61"/>
       <c r="AK95" s="125"/>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="130" t="s">
         <v>435</v>
       </c>
@@ -28970,7 +28958,7 @@
       <c r="AJ96" s="85"/>
       <c r="AK96" s="59"/>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="130" t="s">
         <v>437</v>
       </c>
@@ -29079,7 +29067,7 @@
       <c r="AJ97" s="85"/>
       <c r="AK97" s="59"/>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="130" t="s">
         <v>438</v>
       </c>
@@ -29188,7 +29176,7 @@
       <c r="AJ98" s="85"/>
       <c r="AK98" s="59"/>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="130" t="s">
         <v>440</v>
       </c>
@@ -29297,7 +29285,7 @@
       <c r="AJ99" s="85"/>
       <c r="AK99" s="59"/>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="130" t="s">
         <v>442</v>
       </c>
@@ -29406,7 +29394,7 @@
       <c r="AJ100" s="85"/>
       <c r="AK100" s="59"/>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="130" t="s">
         <v>444</v>
       </c>
@@ -29515,7 +29503,7 @@
       <c r="AJ101" s="85"/>
       <c r="AK101" s="59"/>
     </row>
-    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="130" t="s">
         <v>446</v>
       </c>
@@ -29624,7 +29612,7 @@
       <c r="AJ102" s="85"/>
       <c r="AK102" s="59"/>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="130" t="s">
         <v>447</v>
       </c>
@@ -29733,7 +29721,7 @@
       <c r="AJ103" s="85"/>
       <c r="AK103" s="59"/>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="130" t="s">
         <v>449</v>
       </c>
@@ -29842,7 +29830,7 @@
       <c r="AJ104" s="85"/>
       <c r="AK104" s="59"/>
     </row>
-    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="130" t="s">
         <v>450</v>
       </c>
@@ -29951,7 +29939,7 @@
       <c r="AJ105" s="85"/>
       <c r="AK105" s="59"/>
     </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="130" t="s">
         <v>451</v>
       </c>
@@ -30060,7 +30048,7 @@
       <c r="AJ106" s="85"/>
       <c r="AK106" s="59"/>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="130" t="s">
         <v>452</v>
       </c>
@@ -30169,7 +30157,7 @@
       <c r="AJ107" s="85"/>
       <c r="AK107" s="59"/>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="130" t="s">
         <v>453</v>
       </c>
@@ -30278,7 +30266,7 @@
       <c r="AJ109" s="61"/>
       <c r="AK109" s="125"/>
     </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="130" t="s">
         <v>455</v>
       </c>
@@ -30387,7 +30375,7 @@
       <c r="AJ110" s="85"/>
       <c r="AK110" s="59"/>
     </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="130" t="s">
         <v>457</v>
       </c>
@@ -30496,7 +30484,7 @@
       <c r="AJ111" s="85"/>
       <c r="AK111" s="59"/>
     </row>
-    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="130" t="s">
         <v>458</v>
       </c>
@@ -30605,7 +30593,7 @@
       <c r="AJ113" s="85"/>
       <c r="AK113" s="59"/>
     </row>
-    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="130" t="s">
         <v>460</v>
       </c>
@@ -30714,7 +30702,7 @@
       <c r="AJ114" s="85"/>
       <c r="AK114" s="59"/>
     </row>
-    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="130" t="s">
         <v>462</v>
       </c>
@@ -30823,7 +30811,7 @@
       <c r="AJ116" s="61"/>
       <c r="AK116" s="125"/>
     </row>
-    <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="127"/>
       <c r="B117" s="127"/>
       <c r="C117" s="127"/>
@@ -30860,7 +30848,7 @@
       <c r="AH117" s="127"/>
       <c r="AI117" s="127"/>
     </row>
-    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="127"/>
       <c r="B118" s="141" t="s">
         <v>464</v>
@@ -30901,7 +30889,7 @@
       <c r="AJ118" s="126"/>
       <c r="AK118" s="126"/>
     </row>
-    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="127"/>
       <c r="B119" s="139" t="s">
         <v>465</v>
@@ -30940,7 +30928,7 @@
       <c r="AH119" s="127"/>
       <c r="AI119" s="127"/>
     </row>
-    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="127"/>
       <c r="B120" s="139" t="s">
         <v>466</v>
@@ -30979,7 +30967,7 @@
       <c r="AH120" s="127"/>
       <c r="AI120" s="127"/>
     </row>
-    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="127"/>
       <c r="B121" s="139" t="s">
         <v>467</v>
@@ -31018,7 +31006,7 @@
       <c r="AH121" s="127"/>
       <c r="AI121" s="127"/>
     </row>
-    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="127"/>
       <c r="B122" s="139" t="s">
         <v>468</v>
@@ -31057,7 +31045,7 @@
       <c r="AH122" s="127"/>
       <c r="AI122" s="127"/>
     </row>
-    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="127"/>
       <c r="B123" s="139" t="s">
         <v>469</v>
@@ -31096,7 +31084,7 @@
       <c r="AH123" s="127"/>
       <c r="AI123" s="127"/>
     </row>
-    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="127"/>
       <c r="B124" s="139" t="s">
         <v>158</v>
@@ -31135,7 +31123,7 @@
       <c r="AH124" s="127"/>
       <c r="AI124" s="127"/>
     </row>
-    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="127"/>
       <c r="B125" s="139" t="s">
         <v>470</v>
@@ -31174,7 +31162,7 @@
       <c r="AH125" s="127"/>
       <c r="AI125" s="127"/>
     </row>
-    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="127"/>
       <c r="B126" s="139" t="s">
         <v>584</v>
@@ -31213,22 +31201,22 @@
       <c r="AH126" s="127"/>
       <c r="AI126" s="127"/>
     </row>
-    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="53"/>
     </row>
-    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="53"/>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="53"/>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="53"/>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="53"/>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="53"/>
     </row>
   </sheetData>
@@ -31251,14 +31239,14 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="105" t="s">
         <v>559</v>
       </c>
@@ -31359,8 +31347,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="83" t="s">
         <v>139</v>
       </c>
@@ -31372,7 +31360,7 @@
       <c r="G3" s="83"/>
       <c r="H3" s="83"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="83" t="s">
         <v>140</v>
       </c>
@@ -31386,7 +31374,7 @@
       </c>
       <c r="H4" s="83"/>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="83" t="s">
         <v>142</v>
       </c>
@@ -31398,7 +31386,7 @@
       <c r="G5" s="83"/>
       <c r="H5" s="83"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="83" t="s">
         <v>143</v>
       </c>
@@ -31410,7 +31398,7 @@
       <c r="G6" s="83"/>
       <c r="H6" s="83"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>160</v>
       </c>
@@ -31418,12 +31406,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="105" t="s">
         <v>146</v>
       </c>
@@ -31527,7 +31515,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="106" t="s">
         <v>146</v>
       </c>
@@ -31631,17 +31619,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="108" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
         <v>164</v>
       </c>
@@ -31748,7 +31736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
         <v>166</v>
       </c>
@@ -31855,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
         <v>168</v>
       </c>
@@ -31962,7 +31950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
         <v>170</v>
       </c>
@@ -32069,7 +32057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84" t="s">
         <v>172</v>
       </c>
@@ -32176,7 +32164,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
         <v>174</v>
       </c>
@@ -32283,7 +32271,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
         <v>176</v>
       </c>
@@ -32390,7 +32378,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84" t="s">
         <v>178</v>
       </c>
@@ -32497,7 +32485,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84" t="s">
         <v>180</v>
       </c>
@@ -32604,7 +32592,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84" t="s">
         <v>182</v>
       </c>
@@ -32711,7 +32699,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84" t="s">
         <v>184</v>
       </c>
@@ -32818,7 +32806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
         <v>186</v>
       </c>
@@ -32925,7 +32913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>188</v>
       </c>
@@ -33032,7 +33020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84" t="s">
         <v>190</v>
       </c>
@@ -33139,7 +33127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
         <v>192</v>
       </c>
@@ -33246,7 +33234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="84" t="s">
         <v>194</v>
       </c>
@@ -33353,7 +33341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
         <v>196</v>
       </c>
@@ -33460,7 +33448,7 @@
         <v>-1.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84" t="s">
         <v>198</v>
       </c>
@@ -33567,7 +33555,7 @@
         <v>-1.76E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="84" t="s">
         <v>200</v>
       </c>
@@ -33674,7 +33662,7 @@
         <v>-1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84" t="s">
         <v>202</v>
       </c>
@@ -33781,7 +33769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84" t="s">
         <v>204</v>
       </c>
@@ -33888,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="84" t="s">
         <v>206</v>
       </c>
@@ -33995,7 +33983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="84" t="s">
         <v>208</v>
       </c>
@@ -34102,7 +34090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="84" t="s">
         <v>210</v>
       </c>
@@ -34209,7 +34197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84" t="s">
         <v>212</v>
       </c>
@@ -34316,7 +34304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="84" t="s">
         <v>214</v>
       </c>
@@ -34423,7 +34411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
         <v>216</v>
       </c>
@@ -34530,7 +34518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84" t="s">
         <v>218</v>
       </c>
@@ -34637,7 +34625,7 @@
         <v>1.63E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84" t="s">
         <v>220</v>
       </c>
@@ -34744,7 +34732,7 @@
         <v>-2.52E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="84" t="s">
         <v>222</v>
       </c>
@@ -34851,7 +34839,7 @@
         <v>-4.483E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="84" t="s">
         <v>224</v>
       </c>
@@ -34958,12 +34946,12 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="108" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84" t="s">
         <v>227</v>
       </c>
@@ -35070,7 +35058,7 @@
         <v>-2.4499999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="84" t="s">
         <v>229</v>
       </c>
@@ -35177,7 +35165,7 @@
         <v>-1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="84" t="s">
         <v>231</v>
       </c>
@@ -35284,7 +35272,7 @@
         <v>-6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>233</v>
       </c>
@@ -35391,12 +35379,12 @@
         <v>-4.2200000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="108" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84" t="s">
         <v>236</v>
       </c>
@@ -35503,7 +35491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84" t="s">
         <v>238</v>
       </c>
@@ -35610,7 +35598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="84" t="s">
         <v>240</v>
       </c>
@@ -35717,7 +35705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="84" t="s">
         <v>242</v>
       </c>
@@ -35824,7 +35812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="84" t="s">
         <v>244</v>
       </c>
@@ -35931,7 +35919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="84" t="s">
         <v>246</v>
       </c>
@@ -36038,7 +36026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
         <v>248</v>
       </c>
@@ -36145,12 +36133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="108" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
         <v>251</v>
       </c>
@@ -36257,7 +36245,7 @@
         <v>1.6609999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>252</v>
       </c>
@@ -36364,7 +36352,7 @@
         <v>-5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
         <v>254</v>
       </c>
@@ -36471,7 +36459,7 @@
         <v>-3.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="84" t="s">
         <v>256</v>
       </c>
@@ -36578,7 +36566,7 @@
         <v>1.3550000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>257</v>
       </c>
@@ -36685,7 +36673,7 @@
         <v>-1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
         <v>259</v>
       </c>
@@ -36792,7 +36780,7 @@
         <v>-2.34E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
         <v>261</v>
       </c>
@@ -36899,7 +36887,7 @@
         <v>-1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
         <v>263</v>
       </c>
@@ -37006,7 +36994,7 @@
         <v>1.503E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
         <v>265</v>
       </c>
@@ -37113,7 +37101,7 @@
         <v>1.0610000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="84" t="s">
         <v>266</v>
       </c>
@@ -37220,7 +37208,7 @@
         <v>-5.6899999999999995E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="84" t="s">
         <v>267</v>
       </c>
@@ -37327,7 +37315,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="84" t="s">
         <v>269</v>
       </c>
@@ -37434,17 +37422,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="108" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="108" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="84" t="s">
         <v>271</v>
       </c>
@@ -37551,7 +37539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="84" t="s">
         <v>568</v>
       </c>
@@ -37658,7 +37646,7 @@
         <v>-5.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="142" t="s">
         <v>272</v>
       </c>
@@ -37696,27 +37684,27 @@
       <c r="AH80" s="142"/>
       <c r="AI80" s="142"/>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="53" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="53" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="53" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="53" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="53" t="s">
         <v>571</v>
       </c>
@@ -37734,21 +37722,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AJ81" sqref="AJ80:AJ81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="41" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="36" width="9.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="36" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37854,13 +37842,13 @@
       <c r="AI1" s="25"/>
       <c r="AJ1" s="25"/>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
@@ -37969,7 +37957,7 @@
       </c>
       <c r="AJ3" s="14"/>
     </row>
-    <row r="4" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
@@ -38078,7 +38066,7 @@
       </c>
       <c r="AJ4" s="14"/>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>80</v>
       </c>
@@ -38187,7 +38175,7 @@
       </c>
       <c r="AJ5" s="14"/>
     </row>
-    <row r="6" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -38296,7 +38284,7 @@
       </c>
       <c r="AJ6" s="14"/>
     </row>
-    <row r="7" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -38405,7 +38393,7 @@
       </c>
       <c r="AJ7" s="14"/>
     </row>
-    <row r="8" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>81</v>
       </c>
@@ -38511,7 +38499,7 @@
       </c>
       <c r="AJ8" s="14"/>
     </row>
-    <row r="9" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -38617,7 +38605,7 @@
       </c>
       <c r="AJ9" s="14"/>
     </row>
-    <row r="10" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
@@ -38723,7 +38711,7 @@
       </c>
       <c r="AJ10" s="14"/>
     </row>
-    <row r="11" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -38829,7 +38817,7 @@
       </c>
       <c r="AJ11" s="14"/>
     </row>
-    <row r="12" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
@@ -38935,7 +38923,7 @@
       </c>
       <c r="AJ12" s="14"/>
     </row>
-    <row r="13" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -39041,7 +39029,7 @@
       </c>
       <c r="AJ13" s="14"/>
     </row>
-    <row r="14" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -39147,7 +39135,7 @@
       </c>
       <c r="AJ14" s="14"/>
     </row>
-    <row r="15" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
@@ -39253,13 +39241,13 @@
       </c>
       <c r="AJ15" s="16"/>
     </row>
-    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68" t="s">
         <v>13</v>
       </c>
@@ -39366,7 +39354,7 @@
       <c r="AJ17" s="69"/>
       <c r="AK17" s="70"/>
     </row>
-    <row r="18" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
         <v>12</v>
       </c>
@@ -39473,7 +39461,7 @@
       <c r="AJ18" s="69"/>
       <c r="AK18" s="70"/>
     </row>
-    <row r="19" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
         <v>14</v>
       </c>
@@ -39580,7 +39568,7 @@
       <c r="AJ19" s="69"/>
       <c r="AK19" s="70"/>
     </row>
-    <row r="20" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
         <v>15</v>
       </c>
@@ -39687,7 +39675,7 @@
       <c r="AJ20" s="69"/>
       <c r="AK20" s="70"/>
     </row>
-    <row r="21" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>23</v>
       </c>
@@ -39794,7 +39782,7 @@
       <c r="AJ21" s="69"/>
       <c r="AK21" s="70"/>
     </row>
-    <row r="22" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>16</v>
       </c>
@@ -39901,7 +39889,7 @@
       <c r="AJ22" s="69"/>
       <c r="AK22" s="70"/>
     </row>
-    <row r="23" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>81</v>
       </c>
@@ -40008,7 +39996,7 @@
       <c r="AJ23" s="69"/>
       <c r="AK23" s="70"/>
     </row>
-    <row r="24" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>17</v>
       </c>
@@ -40115,7 +40103,7 @@
       <c r="AJ24" s="69"/>
       <c r="AK24" s="70"/>
     </row>
-    <row r="25" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>24</v>
       </c>
@@ -40222,7 +40210,7 @@
       <c r="AJ25" s="69"/>
       <c r="AK25" s="70"/>
     </row>
-    <row r="26" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
         <v>25</v>
       </c>
@@ -40329,7 +40317,7 @@
       <c r="AJ26" s="69"/>
       <c r="AK26" s="70"/>
     </row>
-    <row r="27" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
         <v>26</v>
       </c>
@@ -40436,7 +40424,7 @@
       <c r="AJ27" s="69"/>
       <c r="AK27" s="70"/>
     </row>
-    <row r="28" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="68" t="s">
         <v>27</v>
       </c>
@@ -40543,7 +40531,7 @@
       <c r="AJ28" s="69"/>
       <c r="AK28" s="70"/>
     </row>
-    <row r="29" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
         <v>115</v>
       </c>
@@ -40650,7 +40638,7 @@
       <c r="AJ29" s="69"/>
       <c r="AK29" s="70"/>
     </row>
-    <row r="30" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
         <v>22</v>
       </c>
@@ -40757,7 +40745,7 @@
       <c r="AJ30" s="69"/>
       <c r="AK30" s="70"/>
     </row>
-    <row r="31" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="72" t="s">
         <v>1</v>
       </c>
@@ -40864,13 +40852,13 @@
       <c r="AJ31" s="73"/>
       <c r="AK31" s="74"/>
     </row>
-    <row r="32" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>587</v>
       </c>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>12</v>
       </c>
@@ -40979,7 +40967,7 @@
       </c>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>13</v>
       </c>
@@ -41088,7 +41076,7 @@
       </c>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>80</v>
       </c>
@@ -41197,7 +41185,7 @@
       </c>
       <c r="AJ35" s="14"/>
     </row>
-    <row r="36" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>16</v>
       </c>
@@ -41306,7 +41294,7 @@
       </c>
       <c r="AJ36" s="14"/>
     </row>
-    <row r="37" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>81</v>
       </c>
@@ -41412,7 +41400,7 @@
       </c>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>17</v>
       </c>
@@ -41518,7 +41506,7 @@
       </c>
       <c r="AJ38" s="14"/>
     </row>
-    <row r="39" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>19</v>
       </c>
@@ -41624,7 +41612,7 @@
       </c>
       <c r="AJ39" s="14"/>
     </row>
-    <row r="40" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>29</v>
       </c>
@@ -41730,7 +41718,7 @@
       </c>
       <c r="AJ40" s="14"/>
     </row>
-    <row r="41" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>18</v>
       </c>
@@ -41836,7 +41824,7 @@
       </c>
       <c r="AJ41" s="14"/>
     </row>
-    <row r="42" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>20</v>
       </c>
@@ -41942,7 +41930,7 @@
       </c>
       <c r="AJ42" s="14"/>
     </row>
-    <row r="43" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>21</v>
       </c>
@@ -42048,7 +42036,7 @@
       </c>
       <c r="AJ43" s="14"/>
     </row>
-    <row r="44" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>22</v>
       </c>
@@ -42154,7 +42142,7 @@
       </c>
       <c r="AJ44" s="14"/>
     </row>
-    <row r="45" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>1</v>
       </c>
@@ -42260,19 +42248,19 @@
       </c>
       <c r="AJ45" s="16"/>
     </row>
-    <row r="46" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>589</v>
       </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>116</v>
       </c>
       <c r="B47" s="27"/>
     </row>
-    <row r="48" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:36" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>30</v>
       </c>
@@ -42381,7 +42369,7 @@
       </c>
       <c r="AJ48" s="14"/>
     </row>
-    <row r="49" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>31</v>
       </c>
@@ -42490,7 +42478,7 @@
       </c>
       <c r="AJ49" s="14"/>
     </row>
-    <row r="50" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>82</v>
       </c>
@@ -42599,7 +42587,7 @@
       </c>
       <c r="AJ50" s="14"/>
     </row>
-    <row r="51" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
@@ -42708,7 +42696,7 @@
       </c>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>33</v>
       </c>
@@ -42817,7 +42805,7 @@
       </c>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>83</v>
       </c>
@@ -42923,7 +42911,7 @@
       </c>
       <c r="AJ53" s="14"/>
     </row>
-    <row r="54" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>34</v>
       </c>
@@ -43029,7 +43017,7 @@
       </c>
       <c r="AJ54" s="14"/>
     </row>
-    <row r="55" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>35</v>
       </c>
@@ -43135,7 +43123,7 @@
       </c>
       <c r="AJ55" s="14"/>
     </row>
-    <row r="56" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>36</v>
       </c>
@@ -43241,7 +43229,7 @@
       </c>
       <c r="AJ56" s="14"/>
     </row>
-    <row r="57" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>37</v>
       </c>
@@ -43347,7 +43335,7 @@
       </c>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>38</v>
       </c>
@@ -43453,7 +43441,7 @@
       </c>
       <c r="AJ58" s="14"/>
     </row>
-    <row r="59" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>117</v>
       </c>
@@ -43493,7 +43481,7 @@
       <c r="AI59" s="14"/>
       <c r="AJ59" s="14"/>
     </row>
-    <row r="60" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>118</v>
       </c>
@@ -43605,7 +43593,7 @@
         <v>1.5187000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>588</v>
       </c>
@@ -43712,7 +43700,7 @@
       <c r="AJ61" s="14"/>
       <c r="AK61" s="21"/>
     </row>
-    <row r="62" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>119</v>
       </c>
@@ -43824,7 +43812,7 @@
         <v>2.2957999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>34</v>
       </c>
@@ -43933,7 +43921,7 @@
         <v>7.8300000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>120</v>
       </c>
@@ -44042,13 +44030,13 @@
         <v>1.5155E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>590</v>
       </c>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>39</v>
       </c>
@@ -44158,7 +44146,7 @@
       <c r="AJ66" s="14"/>
       <c r="AK66" s="21"/>
     </row>
-    <row r="67" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>40</v>
       </c>
@@ -44268,7 +44256,7 @@
       <c r="AJ67" s="14"/>
       <c r="AK67" s="21"/>
     </row>
-    <row r="68" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>41</v>
       </c>
@@ -44378,7 +44366,7 @@
       <c r="AJ68" s="14"/>
       <c r="AK68" s="21"/>
     </row>
-    <row r="69" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>42</v>
       </c>
@@ -44488,7 +44476,7 @@
       <c r="AJ69" s="14"/>
       <c r="AK69" s="21"/>
     </row>
-    <row r="70" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>84</v>
       </c>
@@ -44595,7 +44583,7 @@
       <c r="AJ70" s="14"/>
       <c r="AK70" s="21"/>
     </row>
-    <row r="71" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>43</v>
       </c>
@@ -44702,7 +44690,7 @@
       <c r="AJ71" s="14"/>
       <c r="AK71" s="21"/>
     </row>
-    <row r="72" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>103</v>
       </c>
@@ -44809,7 +44797,7 @@
       <c r="AJ72" s="14"/>
       <c r="AK72" s="21"/>
     </row>
-    <row r="73" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>44</v>
       </c>
@@ -44916,7 +44904,7 @@
       <c r="AJ73" s="14"/>
       <c r="AK73" s="21"/>
     </row>
-    <row r="74" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>45</v>
       </c>
@@ -45023,7 +45011,7 @@
       <c r="AJ74" s="14"/>
       <c r="AK74" s="21"/>
     </row>
-    <row r="75" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>46</v>
       </c>
@@ -45130,7 +45118,7 @@
       <c r="AJ75" s="14"/>
       <c r="AK75" s="21"/>
     </row>
-    <row r="76" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>47</v>
       </c>
@@ -45237,7 +45225,7 @@
       <c r="AJ76" s="14"/>
       <c r="AK76" s="21"/>
     </row>
-    <row r="77" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>48</v>
       </c>
@@ -45344,13 +45332,13 @@
       <c r="AJ77" s="16"/>
       <c r="AK77" s="22"/>
     </row>
-    <row r="78" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>85</v>
       </c>
@@ -45452,7 +45440,7 @@
         <v>387419000</v>
       </c>
     </row>
-    <row r="80" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>87</v>
       </c>
@@ -45485,7 +45473,7 @@
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>86</v>
       </c>
@@ -45518,7 +45506,7 @@
       <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>88</v>
       </c>
@@ -45654,13 +45642,13 @@
       <c r="AI82" s="12"/>
       <c r="AJ82" s="12"/>
     </row>
-    <row r="83" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>39</v>
       </c>
@@ -45769,7 +45757,7 @@
       </c>
       <c r="AJ84" s="14"/>
     </row>
-    <row r="85" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>40</v>
       </c>
@@ -45878,7 +45866,7 @@
       </c>
       <c r="AJ85" s="14"/>
     </row>
-    <row r="86" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>90</v>
       </c>
@@ -45987,7 +45975,7 @@
       </c>
       <c r="AJ86" s="14"/>
     </row>
-    <row r="87" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>41</v>
       </c>
@@ -46096,7 +46084,7 @@
       </c>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>42</v>
       </c>
@@ -46205,7 +46193,7 @@
       </c>
       <c r="AJ88" s="14"/>
     </row>
-    <row r="89" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>84</v>
       </c>
@@ -46311,7 +46299,7 @@
       </c>
       <c r="AJ89" s="14"/>
     </row>
-    <row r="90" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>43</v>
       </c>
@@ -46417,7 +46405,7 @@
       </c>
       <c r="AJ90" s="14"/>
     </row>
-    <row r="91" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>44</v>
       </c>
@@ -46523,7 +46511,7 @@
       </c>
       <c r="AJ91" s="14"/>
     </row>
-    <row r="92" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>45</v>
       </c>
@@ -46629,7 +46617,7 @@
       </c>
       <c r="AJ92" s="14"/>
     </row>
-    <row r="93" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>49</v>
       </c>
@@ -46735,7 +46723,7 @@
       </c>
       <c r="AJ93" s="14"/>
     </row>
-    <row r="94" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>48</v>
       </c>
@@ -46841,13 +46829,13 @@
       </c>
       <c r="AJ94" s="16"/>
     </row>
-    <row r="95" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="58" t="s">
         <v>309</v>
       </c>
@@ -46957,7 +46945,7 @@
       <c r="AJ96" s="60"/>
       <c r="AK96" s="59"/>
     </row>
-    <row r="97" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="58" t="s">
         <v>310</v>
       </c>
@@ -47067,7 +47055,7 @@
       <c r="AJ97" s="60"/>
       <c r="AK97" s="59"/>
     </row>
-    <row r="98" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="58" t="s">
         <v>588</v>
       </c>
@@ -47174,7 +47162,7 @@
       <c r="AJ98" s="60"/>
       <c r="AK98" s="59"/>
     </row>
-    <row r="99" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="58" t="s">
         <v>311</v>
       </c>
@@ -47284,7 +47272,7 @@
       <c r="AJ99" s="60"/>
       <c r="AK99" s="59"/>
     </row>
-    <row r="100" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="58" t="s">
         <v>51</v>
       </c>
@@ -47394,7 +47382,7 @@
       <c r="AJ100" s="60"/>
       <c r="AK100" s="59"/>
     </row>
-    <row r="101" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="58" t="s">
         <v>52</v>
       </c>
@@ -47504,7 +47492,7 @@
       <c r="AJ101" s="60"/>
       <c r="AK101" s="59"/>
     </row>
-    <row r="102" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="58" t="s">
         <v>53</v>
       </c>
@@ -47614,7 +47602,7 @@
       <c r="AJ102" s="60"/>
       <c r="AK102" s="59"/>
     </row>
-    <row r="103" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="58" t="s">
         <v>312</v>
       </c>
@@ -47724,7 +47712,7 @@
       <c r="AJ103" s="60"/>
       <c r="AK103" s="59"/>
     </row>
-    <row r="104" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="58" t="s">
         <v>313</v>
       </c>
@@ -47834,7 +47822,7 @@
       <c r="AJ104" s="60"/>
       <c r="AK104" s="59"/>
     </row>
-    <row r="105" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="58" t="s">
         <v>314</v>
       </c>
@@ -47944,7 +47932,7 @@
       <c r="AJ105" s="60"/>
       <c r="AK105" s="59"/>
     </row>
-    <row r="106" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="58" t="s">
         <v>91</v>
       </c>
@@ -48051,7 +48039,7 @@
       <c r="AJ106" s="60"/>
       <c r="AK106" s="59"/>
     </row>
-    <row r="107" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="58" t="s">
         <v>315</v>
       </c>
@@ -48158,7 +48146,7 @@
       <c r="AJ107" s="60"/>
       <c r="AK107" s="59"/>
     </row>
-    <row r="108" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="58" t="s">
         <v>316</v>
       </c>
@@ -48265,7 +48253,7 @@
       <c r="AJ108" s="60"/>
       <c r="AK108" s="59"/>
     </row>
-    <row r="109" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="58" t="s">
         <v>317</v>
       </c>
@@ -48372,7 +48360,7 @@
       <c r="AJ109" s="60"/>
       <c r="AK109" s="59"/>
     </row>
-    <row r="110" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="58" t="s">
         <v>318</v>
       </c>
@@ -48479,7 +48467,7 @@
       <c r="AJ110" s="60"/>
       <c r="AK110" s="59"/>
     </row>
-    <row r="111" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="58" t="s">
         <v>54</v>
       </c>
@@ -48586,7 +48574,7 @@
       <c r="AJ111" s="60"/>
       <c r="AK111" s="59"/>
     </row>
-    <row r="112" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="58" t="s">
         <v>319</v>
       </c>
@@ -48693,7 +48681,7 @@
       <c r="AJ112" s="60"/>
       <c r="AK112" s="59"/>
     </row>
-    <row r="113" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
         <v>55</v>
       </c>
@@ -48800,7 +48788,7 @@
       <c r="AJ113" s="60"/>
       <c r="AK113" s="59"/>
     </row>
-    <row r="114" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
         <v>56</v>
       </c>
@@ -48907,7 +48895,7 @@
       <c r="AJ114" s="60"/>
       <c r="AK114" s="59"/>
     </row>
-    <row r="115" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="58" t="s">
         <v>320</v>
       </c>
@@ -49014,7 +49002,7 @@
       <c r="AJ115" s="60"/>
       <c r="AK115" s="59"/>
     </row>
-    <row r="116" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="58" t="s">
         <v>321</v>
       </c>
@@ -49121,7 +49109,7 @@
       <c r="AJ116" s="60"/>
       <c r="AK116" s="59"/>
     </row>
-    <row r="117" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="57" t="s">
         <v>57</v>
       </c>
@@ -49228,7 +49216,7 @@
       <c r="AJ117" s="66"/>
       <c r="AK117" s="62"/>
     </row>
-    <row r="118" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="58" t="s">
         <v>58</v>
       </c>
@@ -49335,7 +49323,7 @@
       <c r="AJ118" s="60"/>
       <c r="AK118" s="59"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="57" t="s">
         <v>59</v>
       </c>
@@ -49442,13 +49430,13 @@
       <c r="AJ119" s="66"/>
       <c r="AK119" s="62"/>
     </row>
-    <row r="120" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:37" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="75" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="122" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>308</v>
       </c>
@@ -49590,7 +49578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="58" t="s">
         <v>309</v>
       </c>
@@ -49736,7 +49724,7 @@
       </c>
       <c r="AK123" s="59"/>
     </row>
-    <row r="124" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="58" t="s">
         <v>310</v>
       </c>
@@ -49882,7 +49870,7 @@
       </c>
       <c r="AK124" s="59"/>
     </row>
-    <row r="125" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="58" t="s">
         <v>311</v>
       </c>
@@ -50028,7 +50016,7 @@
       </c>
       <c r="AK125" s="59"/>
     </row>
-    <row r="126" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="58" t="s">
         <v>51</v>
       </c>
@@ -50174,7 +50162,7 @@
       </c>
       <c r="AK126" s="59"/>
     </row>
-    <row r="127" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="58" t="s">
         <v>52</v>
       </c>
@@ -50320,7 +50308,7 @@
       </c>
       <c r="AK127" s="59"/>
     </row>
-    <row r="128" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="58" t="s">
         <v>53</v>
       </c>
@@ -50466,7 +50454,7 @@
       </c>
       <c r="AK128" s="59"/>
     </row>
-    <row r="129" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="58" t="s">
         <v>312</v>
       </c>
@@ -50612,7 +50600,7 @@
       </c>
       <c r="AK129" s="59"/>
     </row>
-    <row r="130" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="58" t="s">
         <v>313</v>
       </c>
@@ -50758,7 +50746,7 @@
       </c>
       <c r="AK130" s="59"/>
     </row>
-    <row r="131" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="58" t="s">
         <v>314</v>
       </c>
@@ -50904,7 +50892,7 @@
       </c>
       <c r="AK131" s="59"/>
     </row>
-    <row r="132" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="58" t="s">
         <v>91</v>
       </c>
@@ -51047,7 +51035,7 @@
       </c>
       <c r="AK132" s="59"/>
     </row>
-    <row r="133" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="58" t="s">
         <v>315</v>
       </c>
@@ -51190,7 +51178,7 @@
       </c>
       <c r="AK133" s="59"/>
     </row>
-    <row r="134" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="58" t="s">
         <v>316</v>
       </c>
@@ -51333,7 +51321,7 @@
       </c>
       <c r="AK134" s="59"/>
     </row>
-    <row r="135" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="58" t="s">
         <v>317</v>
       </c>
@@ -51476,7 +51464,7 @@
       </c>
       <c r="AK135" s="59"/>
     </row>
-    <row r="136" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="58" t="s">
         <v>318</v>
       </c>
@@ -51619,7 +51607,7 @@
       </c>
       <c r="AK136" s="59"/>
     </row>
-    <row r="137" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="58" t="s">
         <v>54</v>
       </c>
@@ -51762,7 +51750,7 @@
       </c>
       <c r="AK137" s="59"/>
     </row>
-    <row r="138" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58" t="s">
         <v>319</v>
       </c>
@@ -51905,7 +51893,7 @@
       </c>
       <c r="AK138" s="59"/>
     </row>
-    <row r="139" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="58" t="s">
         <v>55</v>
       </c>
@@ -52048,7 +52036,7 @@
       </c>
       <c r="AK139" s="59"/>
     </row>
-    <row r="140" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="58" t="s">
         <v>56</v>
       </c>
@@ -52191,7 +52179,7 @@
       </c>
       <c r="AK140" s="59"/>
     </row>
-    <row r="141" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="58" t="s">
         <v>115</v>
       </c>
@@ -52334,7 +52322,7 @@
       </c>
       <c r="AK141" s="59"/>
     </row>
-    <row r="142" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="58" t="s">
         <v>320</v>
       </c>
@@ -52477,7 +52465,7 @@
       </c>
       <c r="AK142" s="59"/>
     </row>
-    <row r="143" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="58" t="s">
         <v>321</v>
       </c>
@@ -52620,7 +52608,7 @@
       </c>
       <c r="AK143" s="59"/>
     </row>
-    <row r="144" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="57" t="s">
         <v>57</v>
       </c>
@@ -52763,7 +52751,7 @@
       </c>
       <c r="AK144" s="62"/>
     </row>
-    <row r="145" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:37" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="58" t="s">
         <v>58</v>
       </c>
@@ -52906,7 +52894,7 @@
       </c>
       <c r="AK145" s="59"/>
     </row>
-    <row r="146" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="57" t="s">
         <v>59</v>
       </c>
@@ -53049,26 +53037,26 @@
       </c>
       <c r="AK146" s="62"/>
     </row>
-    <row r="147" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="149" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="150" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="151" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="152" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="153" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="154" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="155" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="156" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="157" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="158" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="159" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="160" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="161" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="162" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="163" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="164" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="165" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>122</v>
       </c>
@@ -53209,13 +53197,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>121</v>
       </c>
       <c r="C167" s="31">
         <f>SUM('BIFUbC-electricity'!B2:B9,'BIFUbC-coal'!B2:B9,'BIFUbC-natural-gas'!B2:B9,'BIFUbC-biomass'!B2:B9,'BIFUbC-petroleum-diesel'!B2:B9,'BIFUbC-heat'!B2:B9,'BIFUbC-crude-oil'!B2:B9,'BIFUbC-heavy-or-residual-oil'!B2:B9,'BIFUbC-LPG-propane-or-butane'!B2:B9,'BIFUbC-hydrogen'!B2:B9)/10^15</f>
-        <v>61.018577327055048</v>
+        <v>59.716915834380643</v>
       </c>
       <c r="D167" s="31">
         <f>SUM('BIFUbC-electricity'!C2:C9,'BIFUbC-coal'!C2:C9,'BIFUbC-natural-gas'!C2:C9,'BIFUbC-biomass'!C2:C9,'BIFUbC-petroleum-diesel'!C2:C9,'BIFUbC-heat'!C2:C9,'BIFUbC-crude-oil'!C2:C9,'BIFUbC-heavy-or-residual-oil'!C2:C9,'BIFUbC-LPG-propane-or-butane'!C2:C9,'BIFUbC-hydrogen'!C2:C9)/10^15</f>
@@ -53350,13 +53338,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C168" s="50">
         <f>C166-C167</f>
-        <v>-59.918577327055047</v>
+        <v>-58.616915834380642</v>
       </c>
       <c r="D168" s="50">
         <f t="shared" ref="D168:AJ168" si="15">D166-D167</f>
@@ -53491,7 +53479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>130</v>
       </c>
@@ -53632,7 +53620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>121</v>
       </c>
@@ -53773,7 +53761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>138</v>
       </c>
@@ -53914,14 +53902,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>131</v>
       </c>
@@ -54062,13 +54050,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C175" s="6">
         <f>SUM('BIFUbC-coal'!B2:B9)/10^15</f>
-        <v>1.1139999999999999</v>
+        <v>1.1159319999999999</v>
       </c>
       <c r="D175" s="6">
         <f>SUM('BIFUbC-coal'!C2:C9)/10^15</f>
@@ -54203,13 +54191,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C176" s="26">
         <f>C174-C175</f>
-        <v>-1.3739999999999999</v>
+        <v>-1.3759319999999999</v>
       </c>
       <c r="D176" s="26">
         <f t="shared" ref="D176:AJ176" si="19">D174-D175</f>
@@ -54344,14 +54332,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>132</v>
       </c>
@@ -54492,13 +54480,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>121</v>
       </c>
       <c r="C179">
         <f>SUM('BIFUbC-natural-gas'!B2:B9)/10^15</f>
-        <v>11.233730420000001</v>
+        <v>10.549907567</v>
       </c>
       <c r="D179" s="6">
         <f>SUM('BIFUbC-natural-gas'!C2:C9)/10^15</f>
@@ -54633,13 +54621,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C180" s="26">
         <f>C178-C179</f>
-        <v>-4.9437304200000005</v>
+        <v>-4.259907567</v>
       </c>
       <c r="D180" s="26">
         <f t="shared" ref="D180:AJ180" si="21">D178-D179</f>
@@ -54774,7 +54762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -54915,13 +54903,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>134</v>
       </c>
       <c r="C183">
         <f>SUM('BIFUbC-biomass'!B2:B9)/10^15</f>
-        <v>0.90239999999999998</v>
+        <v>0.78399597200000004</v>
       </c>
       <c r="D183" s="6">
         <f>SUM('BIFUbC-biomass'!C2:C9)/10^15</f>
@@ -55056,13 +55044,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C184" s="26">
         <f>C182-C183</f>
-        <v>-0.39239999999999997</v>
+        <v>-0.27399597200000003</v>
       </c>
       <c r="D184" s="26">
         <f t="shared" ref="D184:AJ184" si="23">D182-D183</f>
@@ -55197,7 +55185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>135</v>
       </c>
@@ -55338,13 +55326,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>121</v>
       </c>
       <c r="C187">
         <f>SUM('BIFUbC-petroleum-diesel'!B2:B9)/10^15</f>
-        <v>2.9830500789999999</v>
+        <v>2.8765985379999996</v>
       </c>
       <c r="D187" s="6">
         <f>SUM('BIFUbC-petroleum-diesel'!C2:C9)/10^15</f>
@@ -55479,13 +55467,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C188" s="26">
         <f>C186-C187</f>
-        <v>-2.6130500789999997</v>
+        <v>-2.5065985379999995</v>
       </c>
       <c r="D188" s="26">
         <f t="shared" ref="D188:AJ188" si="25">D186-D187</f>
@@ -55620,7 +55608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>136</v>
       </c>
@@ -55761,13 +55749,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>121</v>
       </c>
       <c r="C191">
         <f>SUM('BIFUbC-heavy-or-residual-oil'!B2:B9)/10^15</f>
-        <v>0.44945086499999998</v>
+        <v>0.52093837499999995</v>
       </c>
       <c r="D191" s="6">
         <f>SUM('BIFUbC-heavy-or-residual-oil'!C2:C9)/10^15</f>
@@ -55902,13 +55890,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C192" s="26">
         <f>C190-C191</f>
-        <v>-0.18945086499999997</v>
+        <v>-0.26093837499999994</v>
       </c>
       <c r="D192" s="26">
         <f t="shared" ref="D192:AJ192" si="27">D190-D191</f>
@@ -56043,7 +56031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>137</v>
       </c>
@@ -56184,13 +56172,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>121</v>
       </c>
       <c r="C195">
         <f>SUM('BIFUbC-LPG-propane-or-butane'!B2:B9)/10^15</f>
-        <v>3.76</v>
+        <v>3.4894720000000001</v>
       </c>
       <c r="D195" s="6">
         <f>SUM('BIFUbC-LPG-propane-or-butane'!C2:C9)/10^15</f>
@@ -56325,13 +56313,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>138</v>
       </c>
       <c r="C196" s="51">
         <f>C194-C195</f>
-        <v>-3.76</v>
+        <v>-3.4894720000000001</v>
       </c>
       <c r="D196" s="26">
         <f t="shared" ref="D196:AJ196" si="29">D194-D195</f>
@@ -56480,27 +56468,27 @@
       <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.73046875" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.86328125" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>490</v>
       </c>
@@ -56509,7 +56497,7 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>485</v>
       </c>
@@ -56517,7 +56505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>486</v>
       </c>
@@ -56525,7 +56513,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>487</v>
       </c>
@@ -56533,24 +56521,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>493</v>
       </c>
@@ -56561,7 +56549,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>486</v>
       </c>
@@ -56573,7 +56561,7 @@
       </c>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>494</v>
       </c>
@@ -56584,12 +56572,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -56597,7 +56585,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -56605,7 +56593,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -56613,7 +56601,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>499</v>
       </c>
@@ -56621,7 +56609,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>500</v>
       </c>
@@ -56629,42 +56617,42 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
     </row>
-    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B25" s="92"/>
     </row>
-    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>509</v>
       </c>
       <c r="B26" s="94"/>
     </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -56672,7 +56660,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2018</v>
       </c>
@@ -56680,7 +56668,7 @@
         <v>756167095</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>2017</v>
       </c>
@@ -56688,7 +56676,7 @@
         <v>774609357</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>2016</v>
       </c>
@@ -56696,7 +56684,7 @@
         <v>728364498</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2015</v>
       </c>
@@ -56704,7 +56692,7 @@
         <v>896940563</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>2014</v>
       </c>
@@ -56712,7 +56700,7 @@
         <v>1000048758</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>2013</v>
       </c>
@@ -56720,7 +56708,7 @@
         <v>984841779</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>2012</v>
       </c>
@@ -56728,7 +56716,7 @@
         <v>1016458418</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2011</v>
       </c>
@@ -56736,7 +56724,7 @@
         <v>1095627536</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2010</v>
       </c>
@@ -56744,7 +56732,7 @@
         <v>1084368148</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2009</v>
       </c>
@@ -56752,7 +56740,7 @@
         <v>1074923392</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2008</v>
       </c>
@@ -56760,7 +56748,7 @@
         <v>1171808669</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2007</v>
       </c>
@@ -56768,7 +56756,7 @@
         <v>1146635345</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="96">
         <v>2006</v>
       </c>
@@ -56776,7 +56764,7 @@
         <v>1162749659</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="96">
         <v>2005</v>
       </c>
@@ -56784,7 +56772,7 @@
         <v>1131498099</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="96">
         <v>2004</v>
       </c>
@@ -56792,7 +56780,7 @@
         <v>1112098870</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="96">
         <v>2003</v>
       </c>
@@ -56800,7 +56788,7 @@
         <v>1071752573</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="96">
         <v>2002</v>
       </c>
@@ -56808,7 +56796,7 @@
         <v>1094283061</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="96">
         <v>2001</v>
       </c>
@@ -56816,16 +56804,16 @@
         <v>1127688806</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="87"/>
     </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>595</v>
       </c>
       <c r="B51" s="87"/>
     </row>
-    <row r="52" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>594</v>
       </c>
@@ -56837,13 +56825,13 @@
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="87"/>
     </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="87"/>
     </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>511</v>
       </c>
@@ -56851,44 +56839,44 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B56" s="87"/>
     </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>520</v>
       </c>
@@ -56896,13 +56884,13 @@
         <v>521</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>523</v>
       </c>
@@ -56913,7 +56901,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="95">
         <v>39083</v>
       </c>
@@ -56921,7 +56909,7 @@
         <v>99.267099999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="95">
         <v>39173</v>
       </c>
@@ -56929,7 +56917,7 @@
         <v>104.2872</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="95">
         <v>39264</v>
       </c>
@@ -56937,7 +56925,7 @@
         <v>106.077</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="95">
         <v>39356</v>
       </c>
@@ -56945,7 +56933,7 @@
         <v>100.1306</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="95">
         <v>39448</v>
       </c>
@@ -56953,7 +56941,7 @@
         <v>102.83580000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="95">
         <v>39539</v>
       </c>
@@ -56961,7 +56949,7 @@
         <v>112.3052</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="95">
         <v>39630</v>
       </c>
@@ -56969,7 +56957,7 @@
         <v>116.2882</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="95">
         <v>39722</v>
       </c>
@@ -56977,7 +56965,7 @@
         <v>112.4958</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="95">
         <v>39814</v>
       </c>
@@ -56985,7 +56973,7 @@
         <v>103.09180000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="95">
         <v>39904</v>
       </c>
@@ -56993,7 +56981,7 @@
         <v>102.3082</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="95">
         <v>39995</v>
       </c>
@@ -57001,7 +56989,7 @@
         <v>100.2642</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="95">
         <v>40087</v>
       </c>
@@ -57009,7 +56997,7 @@
         <v>98.797899999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="95">
         <v>40179</v>
       </c>
@@ -57017,7 +57005,7 @@
         <v>97.08</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="95">
         <v>40269</v>
       </c>
@@ -57025,7 +57013,7 @@
         <v>93.694699999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="95">
         <v>40360</v>
       </c>
@@ -57033,7 +57021,7 @@
         <v>95.671199999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="95">
         <v>40452</v>
       </c>
@@ -57041,7 +57029,7 @@
         <v>97.705600000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="95">
         <v>40544</v>
       </c>
@@ -57052,7 +57040,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="95">
         <v>40634</v>
       </c>
@@ -57063,7 +57051,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="95">
         <v>40725</v>
       </c>
@@ -57071,7 +57059,7 @@
         <v>95.0244</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="95">
         <v>40817</v>
       </c>
@@ -57082,7 +57070,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="95">
         <v>40909</v>
       </c>
@@ -57097,7 +57085,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="95">
         <v>41000</v>
       </c>
@@ -57105,7 +57093,7 @@
         <v>95.798500000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="95">
         <v>41091</v>
       </c>
@@ -57113,7 +57101,7 @@
         <v>99.638300000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="95">
         <v>41183</v>
       </c>
@@ -57121,7 +57109,7 @@
         <v>108.7984</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="95">
         <v>41275</v>
       </c>
@@ -57129,7 +57117,7 @@
         <v>103.8347</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="95">
         <v>41365</v>
       </c>
@@ -57137,7 +57125,7 @@
         <v>103.6388</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="95">
         <v>41456</v>
       </c>
@@ -57145,7 +57133,7 @@
         <v>107.0341</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="95">
         <v>41548</v>
       </c>
@@ -57153,7 +57141,7 @@
         <v>111.393</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="95">
         <v>41640</v>
       </c>
@@ -57161,7 +57149,7 @@
         <v>117.76479999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="95">
         <v>41730</v>
       </c>
@@ -57169,7 +57157,7 @@
         <v>115.3798</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="95">
         <v>41821</v>
       </c>
@@ -57177,7 +57165,7 @@
         <v>116.066</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="95">
         <v>41913</v>
       </c>
@@ -57185,7 +57173,7 @@
         <v>113.0398</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="95">
         <v>42005</v>
       </c>
@@ -57193,7 +57181,7 @@
         <v>116.0885</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="95">
         <v>42095</v>
       </c>
@@ -57201,7 +57189,7 @@
         <v>112.4504</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="95">
         <v>42186</v>
       </c>
@@ -57209,7 +57197,7 @@
         <v>116.9135</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="95">
         <v>42278</v>
       </c>
@@ -57217,7 +57205,7 @@
         <v>121.7403</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="95">
         <v>42370</v>
       </c>
@@ -57225,7 +57213,7 @@
         <v>122.0089</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="95">
         <v>42461</v>
       </c>
@@ -57233,7 +57221,7 @@
         <v>122.38030000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="95">
         <v>42552</v>
       </c>
@@ -57241,7 +57229,7 @@
         <v>119.1635</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="95">
         <v>42644</v>
       </c>
@@ -57249,7 +57237,7 @@
         <v>114.9307</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="95">
         <v>42736</v>
       </c>
@@ -57257,7 +57245,7 @@
         <v>109.84480000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="95">
         <v>42826</v>
       </c>
@@ -57265,7 +57253,7 @@
         <v>108.5098</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="95">
         <v>42917</v>
       </c>
@@ -57273,7 +57261,7 @@
         <v>103.5835</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="95">
         <v>43009</v>
       </c>
@@ -57281,7 +57269,7 @@
         <v>105.25449999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="95">
         <v>43101</v>
       </c>
@@ -57289,7 +57277,7 @@
         <v>97.555000000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="95">
         <v>43191</v>
       </c>
@@ -57297,7 +57285,7 @@
         <v>108.0217</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="95">
         <v>43282</v>
       </c>
@@ -57305,7 +57293,7 @@
         <v>107.7333</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="95">
         <v>43374</v>
       </c>
@@ -57313,7 +57301,7 @@
         <v>106.667</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="95">
         <v>43466</v>
       </c>
@@ -57321,7 +57309,7 @@
         <v>99.863699999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="95">
         <v>43556</v>
       </c>
@@ -57329,7 +57317,7 @@
         <v>108.39</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="95">
         <v>43647</v>
       </c>
@@ -57337,7 +57325,7 @@
         <v>108.181</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="95">
         <v>43739</v>
       </c>
@@ -57345,7 +57333,7 @@
         <v>103.56310000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="95">
         <v>43831</v>
       </c>
@@ -57353,17 +57341,17 @@
         <v>102.5399</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="87"/>
     </row>
-    <row r="122" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B122" s="98"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>485</v>
       </c>
@@ -57375,7 +57363,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>486</v>
       </c>
@@ -57387,7 +57375,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>487</v>
       </c>
@@ -57399,16 +57387,16 @@
         <v>510</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="87"/>
     </row>
-    <row r="127" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="87"/>
     </row>
-    <row r="128" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="87"/>
     </row>
-    <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>534</v>
       </c>
@@ -57418,7 +57406,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>529</v>
       </c>
@@ -57435,7 +57423,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>39</v>
       </c>
@@ -57444,7 +57432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>40</v>
       </c>
@@ -57453,7 +57441,7 @@
         <v>162.1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>41</v>
       </c>
@@ -57462,7 +57450,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>42</v>
       </c>
@@ -57471,7 +57459,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>43</v>
       </c>
@@ -57480,7 +57468,7 @@
         <v>427.4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>103</v>
       </c>
@@ -57502,7 +57490,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>44</v>
       </c>
@@ -57524,7 +57512,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>45</v>
       </c>
@@ -57533,7 +57521,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>49</v>
       </c>
@@ -57542,7 +57530,7 @@
         <v>315.89999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="29" t="s">
         <v>533</v>
       </c>
@@ -57560,15 +57548,15 @@
         <v>761</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B143" s="9"/>
     </row>
-    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>130</v>
       </c>
@@ -57578,7 +57566,7 @@
       </c>
       <c r="C144" s="97"/>
     </row>
-    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>132</v>
       </c>
@@ -57588,7 +57576,7 @@
       </c>
       <c r="C145" s="76"/>
     </row>
-    <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>499</v>
       </c>
@@ -57598,7 +57586,7 @@
       </c>
       <c r="C146" s="76"/>
     </row>
-    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>500</v>
       </c>
@@ -57608,10 +57596,10 @@
       </c>
       <c r="C147" s="76"/>
     </row>
-    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C148" s="76"/>
     </row>
-    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>536</v>
       </c>
@@ -57620,7 +57608,7 @@
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
     </row>
-    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>485</v>
       </c>
@@ -57631,7 +57619,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>130</v>
       </c>
@@ -57648,7 +57636,7 @@
         <v>270.57777777777773</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>132</v>
       </c>
@@ -57665,7 +57653,7 @@
         <v>186.02222222222218</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>499</v>
       </c>
@@ -57685,7 +57673,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>500</v>
       </c>
@@ -57705,7 +57693,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>131</v>
       </c>
@@ -57720,10 +57708,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="87"/>
     </row>
-    <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>537</v>
       </c>
@@ -57732,7 +57720,7 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
     </row>
-    <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
         <v>485</v>
@@ -57744,7 +57732,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>39</v>
       </c>
@@ -57762,7 +57750,7 @@
         <v>0.76013429850118208</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>40</v>
       </c>
@@ -57780,7 +57768,7 @@
         <v>0.76013429850118208</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>41</v>
       </c>
@@ -57798,7 +57786,7 @@
         <v>0.76013429850118208</v>
       </c>
     </row>
-    <row r="162" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>42</v>
       </c>
@@ -57816,7 +57804,7 @@
         <v>0.76013429850118208</v>
       </c>
     </row>
-    <row r="163" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>43</v>
       </c>
@@ -57834,7 +57822,7 @@
         <v>0.4352415119846097</v>
       </c>
     </row>
-    <row r="164" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>103</v>
       </c>
@@ -57849,7 +57837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>44</v>
       </c>
@@ -57864,7 +57852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>45</v>
       </c>
@@ -57882,7 +57870,7 @@
         <v>0.83460141202275673</v>
       </c>
     </row>
-    <row r="167" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>49</v>
       </c>
@@ -57900,10 +57888,10 @@
         <v>0.83460141202275673</v>
       </c>
     </row>
-    <row r="168" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="87"/>
     </row>
-    <row r="169" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="103" t="s">
         <v>547</v>
       </c>
@@ -57942,7 +57930,7 @@
       <c r="AH169" s="91"/>
       <c r="AI169" s="91"/>
     </row>
-    <row r="170" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="32">
         <v>2019</v>
       </c>
@@ -58041,7 +58029,7 @@
       </c>
       <c r="AH170" s="32"/>
     </row>
-    <row r="171" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>39</v>
       </c>
@@ -58176,7 +58164,7 @@
       <c r="AH171" s="32"/>
       <c r="AI171" s="32"/>
     </row>
-    <row r="172" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>40</v>
       </c>
@@ -58311,7 +58299,7 @@
       <c r="AH172" s="32"/>
       <c r="AI172" s="32"/>
     </row>
-    <row r="173" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>41</v>
       </c>
@@ -58446,7 +58434,7 @@
       <c r="AH173" s="32"/>
       <c r="AI173" s="32"/>
     </row>
-    <row r="174" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>42</v>
       </c>
@@ -58581,7 +58569,7 @@
       <c r="AH174" s="32"/>
       <c r="AI174" s="32"/>
     </row>
-    <row r="175" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>43</v>
       </c>
@@ -58716,7 +58704,7 @@
       <c r="AH175" s="32"/>
       <c r="AI175" s="32"/>
     </row>
-    <row r="176" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>103</v>
       </c>
@@ -58851,7 +58839,7 @@
       <c r="AH176" s="32"/>
       <c r="AI176" s="32"/>
     </row>
-    <row r="177" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>44</v>
       </c>
@@ -58986,7 +58974,7 @@
       <c r="AH177" s="32"/>
       <c r="AI177" s="32"/>
     </row>
-    <row r="178" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>45</v>
       </c>
@@ -59121,7 +59109,7 @@
       <c r="AH178" s="32"/>
       <c r="AI178" s="32"/>
     </row>
-    <row r="179" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>49</v>
       </c>
@@ -59256,10 +59244,10 @@
       <c r="AH179" s="32"/>
       <c r="AI179" s="32"/>
     </row>
-    <row r="180" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="87"/>
     </row>
-    <row r="181" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="103" t="s">
         <v>548</v>
       </c>
@@ -59298,7 +59286,7 @@
       <c r="AH181" s="91"/>
       <c r="AI181" s="91"/>
     </row>
-    <row r="182" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="32">
         <v>2019</v>
       </c>
@@ -59397,7 +59385,7 @@
       </c>
       <c r="AH182" s="32"/>
     </row>
-    <row r="183" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>39</v>
       </c>
@@ -59532,7 +59520,7 @@
       <c r="AH183" s="32"/>
       <c r="AI183" s="32"/>
     </row>
-    <row r="184" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>40</v>
       </c>
@@ -59667,7 +59655,7 @@
       <c r="AH184" s="32"/>
       <c r="AI184" s="32"/>
     </row>
-    <row r="185" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>41</v>
       </c>
@@ -59802,7 +59790,7 @@
       <c r="AH185" s="32"/>
       <c r="AI185" s="32"/>
     </row>
-    <row r="186" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>42</v>
       </c>
@@ -59937,7 +59925,7 @@
       <c r="AH186" s="32"/>
       <c r="AI186" s="32"/>
     </row>
-    <row r="187" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
         <v>43</v>
       </c>
@@ -60072,7 +60060,7 @@
       <c r="AH187" s="32"/>
       <c r="AI187" s="32"/>
     </row>
-    <row r="188" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>103</v>
       </c>
@@ -60207,7 +60195,7 @@
       <c r="AH188" s="32"/>
       <c r="AI188" s="32"/>
     </row>
-    <row r="189" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>44</v>
       </c>
@@ -60342,7 +60330,7 @@
       <c r="AH189" s="32"/>
       <c r="AI189" s="32"/>
     </row>
-    <row r="190" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>45</v>
       </c>
@@ -60477,7 +60465,7 @@
       <c r="AH190" s="32"/>
       <c r="AI190" s="32"/>
     </row>
-    <row r="191" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>49</v>
       </c>
@@ -60612,7 +60600,7 @@
       <c r="AH191" s="32"/>
       <c r="AI191" s="32"/>
     </row>
-    <row r="193" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="103" t="s">
         <v>551</v>
       </c>
@@ -60651,7 +60639,7 @@
       <c r="AH193" s="91"/>
       <c r="AI193" s="91"/>
     </row>
-    <row r="194" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="32">
         <v>2019</v>
       </c>
@@ -60750,7 +60738,7 @@
       </c>
       <c r="AH194" s="32"/>
     </row>
-    <row r="195" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>39</v>
       </c>
@@ -60885,7 +60873,7 @@
       <c r="AH195" s="32"/>
       <c r="AI195" s="32"/>
     </row>
-    <row r="196" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>40</v>
       </c>
@@ -61020,7 +61008,7 @@
       <c r="AH196" s="32"/>
       <c r="AI196" s="32"/>
     </row>
-    <row r="197" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>41</v>
       </c>
@@ -61155,7 +61143,7 @@
       <c r="AH197" s="32"/>
       <c r="AI197" s="32"/>
     </row>
-    <row r="198" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>42</v>
       </c>
@@ -61290,7 +61278,7 @@
       <c r="AH198" s="32"/>
       <c r="AI198" s="32"/>
     </row>
-    <row r="199" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>43</v>
       </c>
@@ -61425,7 +61413,7 @@
       <c r="AH199" s="32"/>
       <c r="AI199" s="32"/>
     </row>
-    <row r="200" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>103</v>
       </c>
@@ -61560,7 +61548,7 @@
       <c r="AH200" s="32"/>
       <c r="AI200" s="32"/>
     </row>
-    <row r="201" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>44</v>
       </c>
@@ -61695,7 +61683,7 @@
       <c r="AH201" s="32"/>
       <c r="AI201" s="32"/>
     </row>
-    <row r="202" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>45</v>
       </c>
@@ -61830,7 +61818,7 @@
       <c r="AH202" s="32"/>
       <c r="AI202" s="32"/>
     </row>
-    <row r="203" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>49</v>
       </c>
@@ -61980,17 +61968,17 @@
   <dimension ref="A1:AI168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="35" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -62093,7 +62081,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
@@ -62228,7 +62216,7 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
@@ -62363,7 +62351,7 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
@@ -62498,7 +62486,7 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
@@ -62633,7 +62621,7 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
@@ -62768,7 +62756,7 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
@@ -62903,7 +62891,7 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
@@ -63038,7 +63026,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
@@ -63173,92 +63161,92 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="11" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36"/>
     </row>
-    <row r="12" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35"/>
     </row>
-    <row r="13" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
     </row>
-    <row r="14" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35"/>
     </row>
-    <row r="15" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
     </row>
-    <row r="16" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="35"/>
     </row>
-    <row r="18" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
     </row>
-    <row r="19" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
     </row>
-    <row r="20" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="35"/>
     </row>
-    <row r="21" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="36"/>
     </row>
-    <row r="25" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
     </row>
-    <row r="28" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
     </row>
-    <row r="30" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40"/>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40"/>
     </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="40"/>
     </row>
-    <row r="37" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="40"/>
     </row>
-    <row r="38" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="40"/>
     </row>
-    <row r="39" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="40"/>
     </row>
-    <row r="40" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40"/>
     </row>
-    <row r="41" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
     </row>
-    <row r="43" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -63295,7 +63283,7 @@
       <c r="AH43" s="14"/>
       <c r="AI43" s="14"/>
     </row>
-    <row r="44" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -63332,7 +63320,7 @@
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
     </row>
-    <row r="45" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -63369,7 +63357,7 @@
       <c r="AH45" s="14"/>
       <c r="AI45" s="14"/>
     </row>
-    <row r="46" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -63406,7 +63394,7 @@
       <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
     </row>
-    <row r="47" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -63443,7 +63431,7 @@
       <c r="AH47" s="14"/>
       <c r="AI47" s="14"/>
     </row>
-    <row r="48" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -63480,7 +63468,7 @@
       <c r="AH48" s="14"/>
       <c r="AI48" s="14"/>
     </row>
-    <row r="49" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -63517,7 +63505,7 @@
       <c r="AH49" s="14"/>
       <c r="AI49" s="14"/>
     </row>
-    <row r="50" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -63554,7 +63542,7 @@
       <c r="AH50" s="14"/>
       <c r="AI50" s="14"/>
     </row>
-    <row r="51" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -63591,7 +63579,7 @@
       <c r="AH51" s="14"/>
       <c r="AI51" s="14"/>
     </row>
-    <row r="52" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -63628,7 +63616,7 @@
       <c r="AH52" s="14"/>
       <c r="AI52" s="14"/>
     </row>
-    <row r="53" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -63665,7 +63653,7 @@
       <c r="AH53" s="14"/>
       <c r="AI53" s="14"/>
     </row>
-    <row r="54" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -63702,7 +63690,7 @@
       <c r="AH54" s="14"/>
       <c r="AI54" s="14"/>
     </row>
-    <row r="55" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -63739,10 +63727,10 @@
       <c r="AH55" s="16"/>
       <c r="AI55" s="16"/>
     </row>
-    <row r="56" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
     </row>
-    <row r="57" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -63779,7 +63767,7 @@
       <c r="AH57" s="14"/>
       <c r="AI57" s="14"/>
     </row>
-    <row r="58" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -63816,7 +63804,7 @@
       <c r="AH58" s="14"/>
       <c r="AI58" s="14"/>
     </row>
-    <row r="59" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -63853,7 +63841,7 @@
       <c r="AH59" s="14"/>
       <c r="AI59" s="14"/>
     </row>
-    <row r="60" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -63890,7 +63878,7 @@
       <c r="AH60" s="14"/>
       <c r="AI60" s="14"/>
     </row>
-    <row r="61" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -63927,7 +63915,7 @@
       <c r="AH61" s="14"/>
       <c r="AI61" s="14"/>
     </row>
-    <row r="62" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -63964,7 +63952,7 @@
       <c r="AH62" s="14"/>
       <c r="AI62" s="14"/>
     </row>
-    <row r="63" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -64001,7 +63989,7 @@
       <c r="AH63" s="14"/>
       <c r="AI63" s="14"/>
     </row>
-    <row r="64" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -64038,7 +64026,7 @@
       <c r="AH64" s="14"/>
       <c r="AI64" s="14"/>
     </row>
-    <row r="65" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -64075,7 +64063,7 @@
       <c r="AH65" s="14"/>
       <c r="AI65" s="14"/>
     </row>
-    <row r="66" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -64112,7 +64100,7 @@
       <c r="AH66" s="14"/>
       <c r="AI66" s="14"/>
     </row>
-    <row r="67" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -64149,7 +64137,7 @@
       <c r="AH67" s="14"/>
       <c r="AI67" s="14"/>
     </row>
-    <row r="68" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -64186,7 +64174,7 @@
       <c r="AH68" s="14"/>
       <c r="AI68" s="14"/>
     </row>
-    <row r="69" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -64223,7 +64211,7 @@
       <c r="AH69" s="14"/>
       <c r="AI69" s="14"/>
     </row>
-    <row r="70" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -64260,7 +64248,7 @@
       <c r="AH70" s="14"/>
       <c r="AI70" s="14"/>
     </row>
-    <row r="71" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -64297,10 +64285,10 @@
       <c r="AH71" s="16"/>
       <c r="AI71" s="16"/>
     </row>
-    <row r="72" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
     </row>
-    <row r="73" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -64337,7 +64325,7 @@
       <c r="AH73" s="14"/>
       <c r="AI73" s="14"/>
     </row>
-    <row r="74" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -64374,7 +64362,7 @@
       <c r="AH74" s="14"/>
       <c r="AI74" s="14"/>
     </row>
-    <row r="75" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -64411,7 +64399,7 @@
       <c r="AH75" s="14"/>
       <c r="AI75" s="14"/>
     </row>
-    <row r="76" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -64448,7 +64436,7 @@
       <c r="AH76" s="14"/>
       <c r="AI76" s="14"/>
     </row>
-    <row r="77" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -64485,7 +64473,7 @@
       <c r="AH77" s="14"/>
       <c r="AI77" s="14"/>
     </row>
-    <row r="78" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -64522,7 +64510,7 @@
       <c r="AH78" s="14"/>
       <c r="AI78" s="14"/>
     </row>
-    <row r="79" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -64559,7 +64547,7 @@
       <c r="AH79" s="14"/>
       <c r="AI79" s="14"/>
     </row>
-    <row r="80" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -64596,7 +64584,7 @@
       <c r="AH80" s="14"/>
       <c r="AI80" s="14"/>
     </row>
-    <row r="81" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -64633,7 +64621,7 @@
       <c r="AH81" s="14"/>
       <c r="AI81" s="14"/>
     </row>
-    <row r="82" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -64670,7 +64658,7 @@
       <c r="AH82" s="14"/>
       <c r="AI82" s="14"/>
     </row>
-    <row r="83" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -64707,7 +64695,7 @@
       <c r="AH83" s="14"/>
       <c r="AI83" s="14"/>
     </row>
-    <row r="84" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -64744,7 +64732,7 @@
       <c r="AH84" s="14"/>
       <c r="AI84" s="14"/>
     </row>
-    <row r="85" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -64781,13 +64769,13 @@
       <c r="AH85" s="16"/>
       <c r="AI85" s="16"/>
     </row>
-    <row r="86" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -64824,7 +64812,7 @@
       <c r="AH88" s="14"/>
       <c r="AI88" s="14"/>
     </row>
-    <row r="89" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -64861,7 +64849,7 @@
       <c r="AH89" s="14"/>
       <c r="AI89" s="14"/>
     </row>
-    <row r="90" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -64898,7 +64886,7 @@
       <c r="AH90" s="14"/>
       <c r="AI90" s="14"/>
     </row>
-    <row r="91" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -64935,7 +64923,7 @@
       <c r="AH91" s="14"/>
       <c r="AI91" s="14"/>
     </row>
-    <row r="92" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -64972,7 +64960,7 @@
       <c r="AH92" s="14"/>
       <c r="AI92" s="14"/>
     </row>
-    <row r="93" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -65009,7 +64997,7 @@
       <c r="AH93" s="14"/>
       <c r="AI93" s="14"/>
     </row>
-    <row r="94" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -65046,7 +65034,7 @@
       <c r="AH94" s="14"/>
       <c r="AI94" s="14"/>
     </row>
-    <row r="95" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -65083,7 +65071,7 @@
       <c r="AH95" s="14"/>
       <c r="AI95" s="14"/>
     </row>
-    <row r="96" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -65120,7 +65108,7 @@
       <c r="AH96" s="14"/>
       <c r="AI96" s="14"/>
     </row>
-    <row r="97" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -65157,7 +65145,7 @@
       <c r="AH97" s="14"/>
       <c r="AI97" s="14"/>
     </row>
-    <row r="98" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -65194,7 +65182,7 @@
       <c r="AH98" s="14"/>
       <c r="AI98" s="14"/>
     </row>
-    <row r="99" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -65231,7 +65219,7 @@
       <c r="AH99" s="14"/>
       <c r="AI99" s="14"/>
     </row>
-    <row r="100" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -65268,7 +65256,7 @@
       <c r="AH100" s="14"/>
       <c r="AI100" s="14"/>
     </row>
-    <row r="101" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -65305,7 +65293,7 @@
       <c r="AH101" s="14"/>
       <c r="AI101" s="14"/>
     </row>
-    <row r="102" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -65342,7 +65330,7 @@
       <c r="AH102" s="14"/>
       <c r="AI102" s="14"/>
     </row>
-    <row r="103" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -65379,10 +65367,10 @@
       <c r="AH103" s="14"/>
       <c r="AI103" s="14"/>
     </row>
-    <row r="104" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -65419,7 +65407,7 @@
       <c r="AH105" s="14"/>
       <c r="AI105" s="14"/>
     </row>
-    <row r="106" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -65456,7 +65444,7 @@
       <c r="AH106" s="14"/>
       <c r="AI106" s="14"/>
     </row>
-    <row r="107" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -65493,7 +65481,7 @@
       <c r="AH107" s="14"/>
       <c r="AI107" s="14"/>
     </row>
-    <row r="108" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -65530,7 +65518,7 @@
       <c r="AH108" s="14"/>
       <c r="AI108" s="14"/>
     </row>
-    <row r="109" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -65567,7 +65555,7 @@
       <c r="AH109" s="14"/>
       <c r="AI109" s="14"/>
     </row>
-    <row r="110" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -65604,7 +65592,7 @@
       <c r="AH110" s="14"/>
       <c r="AI110" s="14"/>
     </row>
-    <row r="111" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -65641,7 +65629,7 @@
       <c r="AH111" s="14"/>
       <c r="AI111" s="14"/>
     </row>
-    <row r="112" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -65678,7 +65666,7 @@
       <c r="AH112" s="14"/>
       <c r="AI112" s="14"/>
     </row>
-    <row r="113" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -65715,7 +65703,7 @@
       <c r="AH113" s="14"/>
       <c r="AI113" s="14"/>
     </row>
-    <row r="114" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -65752,7 +65740,7 @@
       <c r="AH114" s="14"/>
       <c r="AI114" s="14"/>
     </row>
-    <row r="115" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -65789,7 +65777,7 @@
       <c r="AH115" s="14"/>
       <c r="AI115" s="14"/>
     </row>
-    <row r="116" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -65826,10 +65814,10 @@
       <c r="AH116" s="16"/>
       <c r="AI116" s="16"/>
     </row>
-    <row r="117" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
     </row>
-    <row r="118" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
@@ -65866,7 +65854,7 @@
       <c r="AH118" s="45"/>
       <c r="AI118" s="45"/>
     </row>
-    <row r="119" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="45"/>
       <c r="C119" s="46"/>
@@ -65894,7 +65882,7 @@
       <c r="Y119" s="46"/>
       <c r="Z119" s="46"/>
     </row>
-    <row r="120" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="46"/>
       <c r="C120" s="47"/>
@@ -65922,7 +65910,7 @@
       <c r="Y120" s="47"/>
       <c r="Z120" s="47"/>
     </row>
-    <row r="121" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
@@ -65959,10 +65947,10 @@
       <c r="AH121" s="47"/>
       <c r="AI121" s="47"/>
     </row>
-    <row r="122" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
     </row>
-    <row r="123" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -65999,7 +65987,7 @@
       <c r="AH123" s="14"/>
       <c r="AI123" s="14"/>
     </row>
-    <row r="124" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -66036,7 +66024,7 @@
       <c r="AH124" s="14"/>
       <c r="AI124" s="14"/>
     </row>
-    <row r="125" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -66073,7 +66061,7 @@
       <c r="AH125" s="14"/>
       <c r="AI125" s="14"/>
     </row>
-    <row r="126" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -66110,7 +66098,7 @@
       <c r="AH126" s="14"/>
       <c r="AI126" s="14"/>
     </row>
-    <row r="127" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -66147,7 +66135,7 @@
       <c r="AH127" s="14"/>
       <c r="AI127" s="14"/>
     </row>
-    <row r="128" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -66184,7 +66172,7 @@
       <c r="AH128" s="14"/>
       <c r="AI128" s="14"/>
     </row>
-    <row r="129" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -66221,7 +66209,7 @@
       <c r="AH129" s="14"/>
       <c r="AI129" s="14"/>
     </row>
-    <row r="130" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -66258,7 +66246,7 @@
       <c r="AH130" s="14"/>
       <c r="AI130" s="14"/>
     </row>
-    <row r="131" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -66295,7 +66283,7 @@
       <c r="AH131" s="14"/>
       <c r="AI131" s="14"/>
     </row>
-    <row r="132" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -66332,7 +66320,7 @@
       <c r="AH132" s="14"/>
       <c r="AI132" s="14"/>
     </row>
-    <row r="133" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -66369,10 +66357,10 @@
       <c r="AH133" s="16"/>
       <c r="AI133" s="16"/>
     </row>
-    <row r="134" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
     </row>
-    <row r="135" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -66409,7 +66397,7 @@
       <c r="AH135" s="17"/>
       <c r="AI135" s="17"/>
     </row>
-    <row r="136" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -66446,7 +66434,7 @@
       <c r="AH136" s="17"/>
       <c r="AI136" s="17"/>
     </row>
-    <row r="137" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -66483,7 +66471,7 @@
       <c r="AH137" s="17"/>
       <c r="AI137" s="17"/>
     </row>
-    <row r="138" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -66520,7 +66508,7 @@
       <c r="AH138" s="17"/>
       <c r="AI138" s="17"/>
     </row>
-    <row r="139" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -66557,7 +66545,7 @@
       <c r="AH139" s="17"/>
       <c r="AI139" s="17"/>
     </row>
-    <row r="140" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -66594,7 +66582,7 @@
       <c r="AH140" s="17"/>
       <c r="AI140" s="17"/>
     </row>
-    <row r="141" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -66631,7 +66619,7 @@
       <c r="AH141" s="17"/>
       <c r="AI141" s="17"/>
     </row>
-    <row r="142" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -66668,7 +66656,7 @@
       <c r="AH142" s="17"/>
       <c r="AI142" s="17"/>
     </row>
-    <row r="143" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -66705,7 +66693,7 @@
       <c r="AH143" s="17"/>
       <c r="AI143" s="17"/>
     </row>
-    <row r="144" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -66742,7 +66730,7 @@
       <c r="AH144" s="17"/>
       <c r="AI144" s="17"/>
     </row>
-    <row r="145" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -66779,7 +66767,7 @@
       <c r="AH145" s="17"/>
       <c r="AI145" s="17"/>
     </row>
-    <row r="146" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -66816,7 +66804,7 @@
       <c r="AH146" s="17"/>
       <c r="AI146" s="17"/>
     </row>
-    <row r="147" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -66853,7 +66841,7 @@
       <c r="AH147" s="17"/>
       <c r="AI147" s="17"/>
     </row>
-    <row r="148" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -66890,7 +66878,7 @@
       <c r="AH148" s="17"/>
       <c r="AI148" s="17"/>
     </row>
-    <row r="149" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -66927,7 +66915,7 @@
       <c r="AH149" s="17"/>
       <c r="AI149" s="17"/>
     </row>
-    <row r="150" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -66964,7 +66952,7 @@
       <c r="AH150" s="17"/>
       <c r="AI150" s="17"/>
     </row>
-    <row r="151" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -67001,7 +66989,7 @@
       <c r="AH151" s="17"/>
       <c r="AI151" s="17"/>
     </row>
-    <row r="152" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -67038,7 +67026,7 @@
       <c r="AH152" s="17"/>
       <c r="AI152" s="17"/>
     </row>
-    <row r="153" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -67075,7 +67063,7 @@
       <c r="AH153" s="17"/>
       <c r="AI153" s="17"/>
     </row>
-    <row r="154" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -67112,7 +67100,7 @@
       <c r="AH154" s="17"/>
       <c r="AI154" s="17"/>
     </row>
-    <row r="155" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -67149,7 +67137,7 @@
       <c r="AH155" s="18"/>
       <c r="AI155" s="18"/>
     </row>
-    <row r="156" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -67186,7 +67174,7 @@
       <c r="AH156" s="17"/>
       <c r="AI156" s="17"/>
     </row>
-    <row r="157" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -67223,8 +67211,8 @@
       <c r="AH157" s="18"/>
       <c r="AI157" s="18"/>
     </row>
-    <row r="158" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="159" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="48"/>
       <c r="C159" s="48"/>
       <c r="D159" s="48"/>
@@ -67237,7 +67225,7 @@
       <c r="K159" s="48"/>
       <c r="L159" s="48"/>
     </row>
-    <row r="160" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="48"/>
       <c r="C160" s="48"/>
       <c r="D160" s="48"/>
@@ -67250,13 +67238,13 @@
       <c r="K160" s="48"/>
       <c r="L160" s="48"/>
     </row>
-    <row r="161" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="162" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="163" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="164" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="165" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="166" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:35" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -67293,7 +67281,7 @@
       <c r="AH167" s="6"/>
       <c r="AI167" s="6"/>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -67344,18 +67332,18 @@
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="6" customWidth="1"/>
-    <col min="3" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="6" customWidth="1"/>
+    <col min="3" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -67458,13 +67446,12 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="23">
-        <f>INDEX(Data!$C$12:$AJ$12,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>169300000000000</v>
+      <c r="B2" s="143">
+        <v>202504211000000</v>
       </c>
       <c r="C2" s="23">
         <f>INDEX(Data!$C$12:$AJ$12,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -67593,12 +67580,11 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="23">
-        <f>Refineries!C107+'Mining Breakdown'!B177*10^12</f>
+      <c r="B3" s="143">
         <v>24000000000000</v>
       </c>
       <c r="C3" s="23">
@@ -67728,13 +67714,12 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="23">
-        <f>INDEX(Data!$C$42:$AJ$42,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>654300000000000</v>
+      <c r="B4" s="143">
+        <v>564085632000000</v>
       </c>
       <c r="C4" s="23">
         <f>INDEX(Data!$C$42:$AJ$42,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -67863,13 +67848,12 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="23">
-        <f>INDEX(Data!$C$55:$AJ$55,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>44500000000000</v>
+      <c r="B5" s="143">
+        <v>56570049000000</v>
       </c>
       <c r="C5" s="23">
         <f>INDEX(Data!$C$55:$AJ$55,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -67998,12 +67982,11 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="23">
-        <f>'Mining Breakdown'!B189*10^12</f>
+      <c r="B6" s="143">
         <v>79900000000000</v>
       </c>
       <c r="C6" s="23">
@@ -68133,11 +68116,11 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="143">
         <v>0</v>
       </c>
       <c r="C7" s="23">
@@ -68236,11 +68219,11 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="143">
         <v>0</v>
       </c>
       <c r="C8" s="23">
@@ -68339,13 +68322,12 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="23">
-        <f>(INDEX(Data!$C$140:$AJ$140,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-SUM(B2:B8))</f>
-        <v>141999999999999.88</v>
+      <c r="B9" s="143">
+        <v>188872107999999.88</v>
       </c>
       <c r="C9" s="23">
         <f>(INDEX(Data!$C$140:$AJ$140,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15-SUM(C2:C8))</f>
@@ -68474,15 +68456,15 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C12" s="26"/>
     </row>
   </sheetData>
@@ -68498,17 +68480,17 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.86328125" style="6" customWidth="1"/>
-    <col min="2" max="35" width="9.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="39.85546875" style="6" customWidth="1"/>
+    <col min="2" max="35" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>546</v>
       </c>
@@ -68611,13 +68593,12 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="23">
-        <f>INDEX(Data!$C$9:$AJ$9,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>16899999999999.998</v>
+      <c r="B2" s="143">
+        <v>16507082000000</v>
       </c>
       <c r="C2" s="23">
         <f>INDEX(Data!$C$9:$AJ$9,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -68746,13 +68727,12 @@
       <c r="AH2" s="23"/>
       <c r="AI2" s="23"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="23">
-        <f>Refineries!C106+'Pipelines &amp; Military'!C114*10^12+SUM('Mining Breakdown'!B175:B176)*10^12</f>
-        <v>4288207582747402.5</v>
+      <c r="B3" s="143">
+        <v>1477841064000000</v>
       </c>
       <c r="C3" s="23">
         <f>Refineries!D106+'Pipelines &amp; Military'!D114*10^12+SUM('Mining Breakdown'!C175:C176)*10^12</f>
@@ -68881,13 +68861,12 @@
       <c r="AH3" s="23"/>
       <c r="AI3" s="23"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="23">
-        <f>INDEX(Data!$C$38:$AJ$38,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>432400000000000</v>
+      <c r="B4" s="143">
+        <v>402024536000000</v>
       </c>
       <c r="C4" s="23">
         <f>INDEX(Data!$C$38:$AJ$38,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -69016,13 +68995,12 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B5" s="23">
-        <f>SUM(INDEX(Data!$C$54:$AJ$54,MATCH(B$1,Data!$C$1:$AJ$1,0)),INDEX(Data!$C$63:$AK$63,1,MATCH(B$1,Data!$C$1:$AJ$1,0)))*10^12</f>
-        <v>3248000000000000</v>
+      <c r="B5" s="143">
+        <v>3142172791000000</v>
       </c>
       <c r="C5" s="23">
         <f>SUM(INDEX(Data!$C$54:$AJ$54,MATCH(C$1,Data!$C$1:$AJ$1,0)),INDEX(Data!$C$63:$AK$63,1,MATCH(C$1,Data!$C$1:$AJ$1,0)))*10^12</f>
@@ -69151,12 +69129,11 @@
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="23">
-        <f>SUM('Mining Breakdown'!B187:B188)*10^12</f>
+      <c r="B6" s="143">
         <v>58700615030375.367</v>
       </c>
       <c r="C6" s="23">
@@ -69286,11 +69263,11 @@
       <c r="AH6" s="23"/>
       <c r="AI6" s="23"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="143">
         <v>0</v>
       </c>
       <c r="C7" s="23">
@@ -69389,13 +69366,12 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="23">
-        <f>INDEX(Data!$C$90:$AJ$90,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^12</f>
-        <v>179500000000000</v>
+      <c r="B8" s="143">
+        <v>69368279000000</v>
       </c>
       <c r="C8" s="23">
         <f>INDEX(Data!$C$90:$AJ$90,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^12</f>
@@ -69524,13 +69500,12 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="23">
-        <f>INDEX(Data!$C$137:$AJ$137,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-INDEX(Data!$C$136:$AJ$136,MATCH(B$1,Data!$C$1:$AJ$1,0))*10^15-SUM(B2:B8)</f>
-        <v>3010022222222223</v>
+      <c r="B9" s="143">
+        <v>5383293199969625</v>
       </c>
       <c r="C9" s="23">
         <f>INDEX(Data!$C$137:$AJ$137,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15-INDEX(Data!$C$136:$AJ$136,MATCH(C$1,Data!$C$1:$AJ$1,0))*10^15-SUM(C2:C8)</f>
@@ -69659,7 +69634,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
